--- a/output/output_version_2_painless.xlsx
+++ b/output/output_version_2_painless.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K188"/>
+  <dimension ref="A1:K178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,13 +566,13 @@
         <v>2432</v>
       </c>
       <c r="I4" t="n">
-        <v>13510</v>
+        <v>13556</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -603,13 +603,13 @@
         <v>2432</v>
       </c>
       <c r="I5" t="n">
-        <v>13804</v>
+        <v>13958</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -640,13 +640,13 @@
         <v>2432</v>
       </c>
       <c r="I6" t="n">
-        <v>14098</v>
+        <v>14360</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7">
@@ -690,13 +690,13 @@
         <v>1954</v>
       </c>
       <c r="I8" t="n">
-        <v>10763</v>
+        <v>10958</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
@@ -727,13 +727,13 @@
         <v>1954</v>
       </c>
       <c r="I9" t="n">
-        <v>11088</v>
+        <v>11266</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="10">
@@ -777,13 +777,13 @@
         <v>2849</v>
       </c>
       <c r="I11" t="n">
-        <v>11879</v>
+        <v>11980</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="12">
@@ -814,13 +814,13 @@
         <v>2849</v>
       </c>
       <c r="I12" t="n">
-        <v>12046</v>
+        <v>12160</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
@@ -851,13 +851,13 @@
         <v>2849</v>
       </c>
       <c r="I13" t="n">
-        <v>12213</v>
+        <v>12340</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="14">
@@ -888,13 +888,13 @@
         <v>2849</v>
       </c>
       <c r="I14" t="n">
-        <v>10476</v>
+        <v>10563</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="15">
@@ -938,13 +938,13 @@
         <v>4898</v>
       </c>
       <c r="I16" t="n">
-        <v>27551</v>
+        <v>27746</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="17">
@@ -975,13 +975,13 @@
         <v>4898</v>
       </c>
       <c r="I17" t="n">
-        <v>28178</v>
+        <v>28442</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="18">
@@ -1012,13 +1012,13 @@
         <v>4898</v>
       </c>
       <c r="I18" t="n">
-        <v>28842</v>
+        <v>29138</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19">
@@ -1062,13 +1062,13 @@
         <v>5735</v>
       </c>
       <c r="I20" t="n">
-        <v>25785</v>
+        <v>25952</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="21">
@@ -1099,7 +1099,7 @@
         <v>5735</v>
       </c>
       <c r="I21" t="n">
-        <v>25990</v>
+        <v>26176</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
@@ -1136,13 +1136,13 @@
         <v>5735</v>
       </c>
       <c r="I22" t="n">
-        <v>26195</v>
+        <v>26400</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="23">
@@ -1173,13 +1173,13 @@
         <v>5735</v>
       </c>
       <c r="I23" t="n">
-        <v>25595</v>
+        <v>25662</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="24">
@@ -1223,13 +1223,13 @@
         <v>5996</v>
       </c>
       <c r="I25" t="n">
-        <v>30578</v>
+        <v>30795</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="26">
@@ -1260,7 +1260,7 @@
         <v>5996</v>
       </c>
       <c r="I26" t="n">
-        <v>31052</v>
+        <v>31287</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
@@ -1297,13 +1297,13 @@
         <v>5996</v>
       </c>
       <c r="I27" t="n">
-        <v>31526</v>
+        <v>31765</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="28">
@@ -1347,13 +1347,13 @@
         <v>6158</v>
       </c>
       <c r="I29" t="n">
-        <v>29581</v>
+        <v>29743</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="30">
@@ -1384,13 +1384,13 @@
         <v>6158</v>
       </c>
       <c r="I30" t="n">
-        <v>30078</v>
+        <v>30249</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="31">
@@ -1421,7 +1421,7 @@
         <v>6158</v>
       </c>
       <c r="I31" t="n">
-        <v>30575</v>
+        <v>30755</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
@@ -1471,13 +1471,13 @@
         <v>7318</v>
       </c>
       <c r="I33" t="n">
-        <v>49911</v>
+        <v>50046</v>
       </c>
       <c r="J33" t="b">
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="34">
@@ -1508,13 +1508,13 @@
         <v>7318</v>
       </c>
       <c r="I34" t="n">
-        <v>50995</v>
+        <v>51166</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="35">
@@ -1558,13 +1558,13 @@
         <v>18532</v>
       </c>
       <c r="I36" t="n">
-        <v>104150</v>
+        <v>104331</v>
       </c>
       <c r="J36" t="b">
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37">
@@ -1595,13 +1595,13 @@
         <v>18532</v>
       </c>
       <c r="I37" t="n">
-        <v>104982</v>
+        <v>105203</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="38">
@@ -1632,13 +1632,13 @@
         <v>18532</v>
       </c>
       <c r="I38" t="n">
-        <v>105814</v>
+        <v>106075</v>
       </c>
       <c r="J38" t="b">
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="39">
@@ -1669,13 +1669,13 @@
         <v>18532</v>
       </c>
       <c r="I39" t="n">
-        <v>106646</v>
+        <v>106911</v>
       </c>
       <c r="J39" t="b">
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>1.04</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="40">
@@ -1706,13 +1706,13 @@
         <v>18532</v>
       </c>
       <c r="I40" t="n">
-        <v>107478</v>
+        <v>107747</v>
       </c>
       <c r="J40" t="b">
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>16.67</v>
+        <v>17.77</v>
       </c>
     </row>
     <row r="41">
@@ -1743,11 +1743,11 @@
         <v>18532</v>
       </c>
       <c r="I41" t="n">
-        <v>108310</v>
+        <v>108583</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>1838.78</v>
+        <v>1780.99</v>
       </c>
     </row>
     <row r="42">
@@ -1791,13 +1791,13 @@
         <v>18302</v>
       </c>
       <c r="I43" t="n">
-        <v>104532</v>
+        <v>104815</v>
       </c>
       <c r="J43" t="b">
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="44">
@@ -1828,13 +1828,13 @@
         <v>18302</v>
       </c>
       <c r="I44" t="n">
-        <v>105509</v>
+        <v>105787</v>
       </c>
       <c r="J44" t="b">
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="45">
@@ -1865,13 +1865,13 @@
         <v>18302</v>
       </c>
       <c r="I45" t="n">
-        <v>106458</v>
+        <v>106759</v>
       </c>
       <c r="J45" t="b">
         <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="46">
@@ -1902,13 +1902,13 @@
         <v>18302</v>
       </c>
       <c r="I46" t="n">
-        <v>107351</v>
+        <v>107731</v>
       </c>
       <c r="J46" t="b">
         <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="47">
@@ -1939,13 +1939,13 @@
         <v>18302</v>
       </c>
       <c r="I47" t="n">
-        <v>108244</v>
+        <v>108703</v>
       </c>
       <c r="J47" t="b">
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="48">
@@ -1976,13 +1976,13 @@
         <v>18302</v>
       </c>
       <c r="I48" t="n">
-        <v>109137</v>
+        <v>109675</v>
       </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>12.56</v>
+        <v>16.66</v>
       </c>
     </row>
     <row r="49">
@@ -2026,13 +2026,13 @@
         <v>30188</v>
       </c>
       <c r="I50" t="n">
-        <v>146848</v>
+        <v>147224</v>
       </c>
       <c r="J50" t="b">
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="51">
@@ -2063,13 +2063,13 @@
         <v>30188</v>
       </c>
       <c r="I51" t="n">
-        <v>147457</v>
+        <v>147856</v>
       </c>
       <c r="J51" t="b">
         <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>0.55</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="52">
@@ -2100,13 +2100,13 @@
         <v>30188</v>
       </c>
       <c r="I52" t="n">
-        <v>148066</v>
+        <v>148488</v>
       </c>
       <c r="J52" t="b">
         <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="53">
@@ -2137,13 +2137,13 @@
         <v>30188</v>
       </c>
       <c r="I53" t="n">
-        <v>148675</v>
+        <v>149120</v>
       </c>
       <c r="J53" t="b">
         <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="54">
@@ -2174,13 +2174,13 @@
         <v>30188</v>
       </c>
       <c r="I54" t="n">
-        <v>149284</v>
+        <v>149752</v>
       </c>
       <c r="J54" t="b">
         <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>0.51</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="55">
@@ -2211,13 +2211,13 @@
         <v>30188</v>
       </c>
       <c r="I55" t="n">
-        <v>149893</v>
+        <v>150384</v>
       </c>
       <c r="J55" t="b">
         <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>2.18</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="56">
@@ -2248,13 +2248,13 @@
         <v>30188</v>
       </c>
       <c r="I56" t="n">
-        <v>150502</v>
+        <v>151016</v>
       </c>
       <c r="J56" t="b">
         <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>2.56</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="57">
@@ -2285,13 +2285,13 @@
         <v>30188</v>
       </c>
       <c r="I57" t="n">
-        <v>151111</v>
+        <v>151648</v>
       </c>
       <c r="J57" t="b">
         <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>4.8</v>
+        <v>9.449999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -2322,13 +2322,13 @@
         <v>30188</v>
       </c>
       <c r="I58" t="n">
-        <v>151720</v>
+        <v>152280</v>
       </c>
       <c r="J58" t="b">
         <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>92.81999999999999</v>
+        <v>108.53</v>
       </c>
     </row>
     <row r="59">
@@ -2359,13 +2359,13 @@
         <v>30188</v>
       </c>
       <c r="I59" t="n">
-        <v>119523</v>
+        <v>119703</v>
       </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0.43</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="60">
@@ -2409,13 +2409,13 @@
         <v>23838</v>
       </c>
       <c r="I61" t="n">
-        <v>115300</v>
+        <v>115640</v>
       </c>
       <c r="J61" t="b">
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="62">
@@ -2446,13 +2446,13 @@
         <v>23838</v>
       </c>
       <c r="I62" t="n">
-        <v>115997</v>
+        <v>116340</v>
       </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="63">
@@ -2496,13 +2496,13 @@
         <v>429662</v>
       </c>
       <c r="I64" t="n">
-        <v>4113221</v>
+        <v>4113613</v>
       </c>
       <c r="J64" t="b">
         <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>18.87</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="65">
@@ -2533,13 +2533,13 @@
         <v>429662</v>
       </c>
       <c r="I65" t="n">
-        <v>4128099</v>
+        <v>4128491</v>
       </c>
       <c r="J65" t="b">
         <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>18.5</v>
+        <v>16.43</v>
       </c>
     </row>
     <row r="66">
@@ -2570,13 +2570,13 @@
         <v>429662</v>
       </c>
       <c r="I66" t="n">
-        <v>4142977</v>
+        <v>4143369</v>
       </c>
       <c r="J66" t="b">
         <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>39.25</v>
+        <v>25.31</v>
       </c>
     </row>
     <row r="67">
@@ -2607,13 +2607,13 @@
         <v>429662</v>
       </c>
       <c r="I67" t="n">
-        <v>4157855</v>
+        <v>4158247</v>
       </c>
       <c r="J67" t="b">
         <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>39.11</v>
+        <v>41.87</v>
       </c>
     </row>
     <row r="68">
@@ -2644,13 +2644,13 @@
         <v>429662</v>
       </c>
       <c r="I68" t="n">
-        <v>4172733</v>
+        <v>4173125</v>
       </c>
       <c r="J68" t="b">
         <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>123.76</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -2681,62 +2681,62 @@
         <v>429662</v>
       </c>
       <c r="I69" t="n">
-        <v>4187611</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>4188003</v>
+      </c>
+      <c r="J69" t="b">
+        <v>1</v>
+      </c>
       <c r="K69" t="n">
-        <v>1613.64</v>
+        <v>1092.91</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>M-bcsstk06.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>420</v>
+      </c>
+      <c r="C70" t="n">
+        <v>323</v>
+      </c>
+      <c r="D70" t="n">
+        <v>77</v>
+      </c>
+      <c r="E70" t="n">
+        <v>21</v>
+      </c>
+      <c r="F70" t="n">
+        <v>35</v>
+      </c>
+      <c r="G70" t="n">
+        <v>27</v>
+      </c>
+      <c r="H70" t="n">
+        <v>429662</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4202881</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>538.27</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>O-impcol_d.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>425</v>
-      </c>
-      <c r="C71" t="n">
-        <v>221</v>
-      </c>
-      <c r="D71" t="n">
-        <v>52</v>
-      </c>
-      <c r="E71" t="n">
-        <v>47</v>
-      </c>
-      <c r="F71" t="n">
-        <v>102</v>
-      </c>
-      <c r="G71" t="n">
-        <v>47</v>
-      </c>
-      <c r="H71" t="n">
-        <v>301327</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1769365</v>
-      </c>
-      <c r="J71" t="b">
-        <v>1</v>
-      </c>
-      <c r="K71" t="n">
-        <v>8.359999999999999</v>
-      </c>
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2760,19 +2760,19 @@
         <v>102</v>
       </c>
       <c r="G72" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H72" t="n">
         <v>301327</v>
       </c>
       <c r="I72" t="n">
-        <v>1774415</v>
+        <v>1770928</v>
       </c>
       <c r="J72" t="b">
         <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>7.13</v>
+        <v>8.279999999999999</v>
       </c>
     </row>
     <row r="73">
@@ -2797,19 +2797,19 @@
         <v>102</v>
       </c>
       <c r="G73" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H73" t="n">
         <v>301327</v>
       </c>
       <c r="I73" t="n">
-        <v>1779465</v>
+        <v>1775992</v>
       </c>
       <c r="J73" t="b">
         <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>7.55</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="74">
@@ -2834,19 +2834,19 @@
         <v>102</v>
       </c>
       <c r="G74" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H74" t="n">
         <v>301327</v>
       </c>
       <c r="I74" t="n">
-        <v>1784515</v>
+        <v>1781056</v>
       </c>
       <c r="J74" t="b">
         <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>6.95</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="75">
@@ -2871,19 +2871,19 @@
         <v>102</v>
       </c>
       <c r="G75" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H75" t="n">
         <v>301327</v>
       </c>
       <c r="I75" t="n">
-        <v>1789565</v>
+        <v>1786120</v>
       </c>
       <c r="J75" t="b">
         <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>6.97</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="76">
@@ -2908,19 +2908,19 @@
         <v>102</v>
       </c>
       <c r="G76" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H76" t="n">
         <v>301327</v>
       </c>
       <c r="I76" t="n">
-        <v>1794615</v>
+        <v>1791184</v>
       </c>
       <c r="J76" t="b">
         <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>8.050000000000001</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="77">
@@ -2945,19 +2945,19 @@
         <v>102</v>
       </c>
       <c r="G77" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H77" t="n">
         <v>301327</v>
       </c>
       <c r="I77" t="n">
-        <v>1799665</v>
+        <v>1796248</v>
       </c>
       <c r="J77" t="b">
         <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>7.29</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="78">
@@ -2982,19 +2982,19 @@
         <v>102</v>
       </c>
       <c r="G78" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H78" t="n">
         <v>301327</v>
       </c>
       <c r="I78" t="n">
-        <v>1804715</v>
+        <v>1801312</v>
       </c>
       <c r="J78" t="b">
         <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>7.02</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="79">
@@ -3019,19 +3019,19 @@
         <v>102</v>
       </c>
       <c r="G79" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H79" t="n">
         <v>301327</v>
       </c>
       <c r="I79" t="n">
-        <v>1809765</v>
+        <v>1806376</v>
       </c>
       <c r="J79" t="b">
         <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>6.83</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="80">
@@ -3056,19 +3056,19 @@
         <v>102</v>
       </c>
       <c r="G80" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H80" t="n">
         <v>301327</v>
       </c>
       <c r="I80" t="n">
-        <v>1814815</v>
+        <v>1811440</v>
       </c>
       <c r="J80" t="b">
         <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>8.69</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="81">
@@ -3093,19 +3093,19 @@
         <v>102</v>
       </c>
       <c r="G81" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H81" t="n">
         <v>301327</v>
       </c>
       <c r="I81" t="n">
-        <v>1819865</v>
+        <v>1816494</v>
       </c>
       <c r="J81" t="b">
         <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>7.27</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="82">
@@ -3130,19 +3130,19 @@
         <v>102</v>
       </c>
       <c r="G82" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H82" t="n">
         <v>301327</v>
       </c>
       <c r="I82" t="n">
-        <v>1824915</v>
+        <v>1821538</v>
       </c>
       <c r="J82" t="b">
         <v>1</v>
       </c>
       <c r="K82" t="n">
-        <v>8.1</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="83">
@@ -3167,19 +3167,19 @@
         <v>102</v>
       </c>
       <c r="G83" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H83" t="n">
         <v>301327</v>
       </c>
       <c r="I83" t="n">
-        <v>1829965</v>
+        <v>1826582</v>
       </c>
       <c r="J83" t="b">
         <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>7.7</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="84">
@@ -3204,19 +3204,19 @@
         <v>102</v>
       </c>
       <c r="G84" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H84" t="n">
         <v>301327</v>
       </c>
       <c r="I84" t="n">
-        <v>1835015</v>
+        <v>1831626</v>
       </c>
       <c r="J84" t="b">
         <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>12.4</v>
+        <v>8.31</v>
       </c>
     </row>
     <row r="85">
@@ -3241,19 +3241,19 @@
         <v>102</v>
       </c>
       <c r="G85" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H85" t="n">
         <v>301327</v>
       </c>
       <c r="I85" t="n">
-        <v>1840065</v>
+        <v>1836670</v>
       </c>
       <c r="J85" t="b">
         <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>11.14</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="86">
@@ -3278,19 +3278,19 @@
         <v>102</v>
       </c>
       <c r="G86" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H86" t="n">
         <v>301327</v>
       </c>
       <c r="I86" t="n">
-        <v>1845115</v>
+        <v>1841714</v>
       </c>
       <c r="J86" t="b">
         <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>7.29</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="87">
@@ -3315,19 +3315,19 @@
         <v>102</v>
       </c>
       <c r="G87" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H87" t="n">
         <v>301327</v>
       </c>
       <c r="I87" t="n">
-        <v>1850165</v>
+        <v>1846758</v>
       </c>
       <c r="J87" t="b">
         <v>1</v>
       </c>
       <c r="K87" t="n">
-        <v>8.27</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="88">
@@ -3352,19 +3352,19 @@
         <v>102</v>
       </c>
       <c r="G88" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H88" t="n">
         <v>301327</v>
       </c>
       <c r="I88" t="n">
-        <v>1855215</v>
+        <v>1851802</v>
       </c>
       <c r="J88" t="b">
         <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>13.37</v>
+        <v>15.24</v>
       </c>
     </row>
     <row r="89">
@@ -3389,19 +3389,19 @@
         <v>102</v>
       </c>
       <c r="G89" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H89" t="n">
         <v>301327</v>
       </c>
       <c r="I89" t="n">
-        <v>1860265</v>
+        <v>1856846</v>
       </c>
       <c r="J89" t="b">
         <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>10.05</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="90">
@@ -3426,19 +3426,19 @@
         <v>102</v>
       </c>
       <c r="G90" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H90" t="n">
         <v>301327</v>
       </c>
       <c r="I90" t="n">
-        <v>1865315</v>
+        <v>1861890</v>
       </c>
       <c r="J90" t="b">
         <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>13.13</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="91">
@@ -3463,19 +3463,19 @@
         <v>102</v>
       </c>
       <c r="G91" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H91" t="n">
         <v>301327</v>
       </c>
       <c r="I91" t="n">
-        <v>1870365</v>
+        <v>1866934</v>
       </c>
       <c r="J91" t="b">
         <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>23.61</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="92">
@@ -3500,19 +3500,19 @@
         <v>102</v>
       </c>
       <c r="G92" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H92" t="n">
         <v>301327</v>
       </c>
       <c r="I92" t="n">
-        <v>1875415</v>
+        <v>1871978</v>
       </c>
       <c r="J92" t="b">
         <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>15.32</v>
+        <v>16.08</v>
       </c>
     </row>
     <row r="93">
@@ -3537,19 +3537,19 @@
         <v>102</v>
       </c>
       <c r="G93" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H93" t="n">
         <v>301327</v>
       </c>
       <c r="I93" t="n">
-        <v>1880465</v>
+        <v>1877022</v>
       </c>
       <c r="J93" t="b">
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>18.43</v>
+        <v>17.77</v>
       </c>
     </row>
     <row r="94">
@@ -3574,19 +3574,19 @@
         <v>102</v>
       </c>
       <c r="G94" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H94" t="n">
         <v>301327</v>
       </c>
       <c r="I94" t="n">
-        <v>1885515</v>
+        <v>1882066</v>
       </c>
       <c r="J94" t="b">
         <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>28.2</v>
+        <v>35.07</v>
       </c>
     </row>
     <row r="95">
@@ -3611,19 +3611,19 @@
         <v>102</v>
       </c>
       <c r="G95" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H95" t="n">
         <v>301327</v>
       </c>
       <c r="I95" t="n">
-        <v>1890565</v>
+        <v>1887110</v>
       </c>
       <c r="J95" t="b">
         <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>143.35</v>
+        <v>136.1</v>
       </c>
     </row>
     <row r="96">
@@ -3648,19 +3648,19 @@
         <v>102</v>
       </c>
       <c r="G96" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H96" t="n">
         <v>301327</v>
       </c>
       <c r="I96" t="n">
-        <v>1895615</v>
+        <v>1892154</v>
       </c>
       <c r="J96" t="b">
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>1011.18</v>
+        <v>127.14</v>
       </c>
     </row>
     <row r="97">
@@ -3685,17 +3685,17 @@
         <v>102</v>
       </c>
       <c r="G97" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H97" t="n">
         <v>301327</v>
       </c>
       <c r="I97" t="n">
-        <v>1900665</v>
+        <v>1897198</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>403.43</v>
+        <v>1272.39</v>
       </c>
     </row>
     <row r="98">
@@ -3739,13 +3739,13 @@
         <v>469032</v>
       </c>
       <c r="I99" t="n">
-        <v>3035736</v>
+        <v>3036446</v>
       </c>
       <c r="J99" t="b">
         <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>15.75</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="100">
@@ -3776,13 +3776,13 @@
         <v>469032</v>
       </c>
       <c r="I100" t="n">
-        <v>3042398</v>
+        <v>3043168</v>
       </c>
       <c r="J100" t="b">
         <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>18.72</v>
+        <v>49.19</v>
       </c>
     </row>
     <row r="101">
@@ -3813,13 +3813,13 @@
         <v>469032</v>
       </c>
       <c r="I101" t="n">
-        <v>3049060</v>
+        <v>3049890</v>
       </c>
       <c r="J101" t="b">
         <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>33.5</v>
+        <v>89.53</v>
       </c>
     </row>
     <row r="102">
@@ -3850,13 +3850,13 @@
         <v>469032</v>
       </c>
       <c r="I102" t="n">
-        <v>3055722</v>
+        <v>3056612</v>
       </c>
       <c r="J102" t="b">
         <v>1</v>
       </c>
       <c r="K102" t="n">
-        <v>60.19</v>
+        <v>85.31999999999999</v>
       </c>
     </row>
     <row r="103">
@@ -3887,13 +3887,13 @@
         <v>469032</v>
       </c>
       <c r="I103" t="n">
-        <v>3062384</v>
+        <v>3063334</v>
       </c>
       <c r="J103" t="b">
         <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>73.56999999999999</v>
+        <v>70.53</v>
       </c>
     </row>
     <row r="104">
@@ -3924,13 +3924,13 @@
         <v>469032</v>
       </c>
       <c r="I104" t="n">
-        <v>3069046</v>
+        <v>3070056</v>
       </c>
       <c r="J104" t="b">
         <v>1</v>
       </c>
       <c r="K104" t="n">
-        <v>76.66</v>
+        <v>87.66</v>
       </c>
     </row>
     <row r="105">
@@ -3961,13 +3961,13 @@
         <v>469032</v>
       </c>
       <c r="I105" t="n">
-        <v>3075708</v>
+        <v>3076778</v>
       </c>
       <c r="J105" t="b">
         <v>1</v>
       </c>
       <c r="K105" t="n">
-        <v>101.36</v>
+        <v>203.13</v>
       </c>
     </row>
     <row r="106">
@@ -3998,13 +3998,13 @@
         <v>469032</v>
       </c>
       <c r="I106" t="n">
-        <v>3082370</v>
+        <v>3083500</v>
       </c>
       <c r="J106" t="b">
         <v>1</v>
       </c>
       <c r="K106" t="n">
-        <v>485.05</v>
+        <v>464.66</v>
       </c>
     </row>
     <row r="107">
@@ -4035,13 +4035,13 @@
         <v>469032</v>
       </c>
       <c r="I107" t="n">
-        <v>3089032</v>
+        <v>3090222</v>
       </c>
       <c r="J107" t="b">
         <v>1</v>
       </c>
       <c r="K107" t="n">
-        <v>275.56</v>
+        <v>654.47</v>
       </c>
     </row>
     <row r="108">
@@ -4072,62 +4072,62 @@
         <v>469032</v>
       </c>
       <c r="I108" t="n">
-        <v>3095694</v>
-      </c>
-      <c r="J108" t="b">
-        <v>1</v>
-      </c>
+        <v>3096944</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>605.49</v>
+        <v>75.17</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>P-can__445.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>445</v>
-      </c>
-      <c r="C109" t="n">
-        <v>333</v>
-      </c>
-      <c r="D109" t="n">
-        <v>75</v>
-      </c>
-      <c r="E109" t="n">
-        <v>58</v>
-      </c>
-      <c r="F109" t="n">
-        <v>79</v>
-      </c>
-      <c r="G109" t="n">
-        <v>68</v>
-      </c>
-      <c r="H109" t="n">
-        <v>469032</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3102356</v>
-      </c>
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>57.42</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr"/>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Q-494_bus.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>494</v>
+      </c>
+      <c r="C110" t="n">
+        <v>326</v>
+      </c>
+      <c r="D110" t="n">
+        <v>66</v>
+      </c>
+      <c r="E110" t="n">
+        <v>144</v>
+      </c>
+      <c r="F110" t="n">
+        <v>220</v>
+      </c>
+      <c r="G110" t="n">
+        <v>144</v>
+      </c>
+      <c r="H110" t="n">
+        <v>510304</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2379288</v>
+      </c>
+      <c r="J110" t="b">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>85.27</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4151,19 +4151,19 @@
         <v>220</v>
       </c>
       <c r="G111" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H111" t="n">
         <v>510304</v>
       </c>
       <c r="I111" t="n">
-        <v>2378177</v>
+        <v>2381624</v>
       </c>
       <c r="J111" t="b">
         <v>1</v>
       </c>
       <c r="K111" t="n">
-        <v>18.36</v>
+        <v>106.33</v>
       </c>
     </row>
     <row r="112">
@@ -4188,19 +4188,19 @@
         <v>220</v>
       </c>
       <c r="G112" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H112" t="n">
         <v>510304</v>
       </c>
       <c r="I112" t="n">
-        <v>2380510</v>
+        <v>2383960</v>
       </c>
       <c r="J112" t="b">
         <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>75.12</v>
+        <v>92.59999999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4225,19 +4225,19 @@
         <v>220</v>
       </c>
       <c r="G113" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H113" t="n">
         <v>510304</v>
       </c>
       <c r="I113" t="n">
-        <v>2382843</v>
+        <v>2386296</v>
       </c>
       <c r="J113" t="b">
         <v>1</v>
       </c>
       <c r="K113" t="n">
-        <v>57.35</v>
+        <v>103.19</v>
       </c>
     </row>
     <row r="114">
@@ -4262,19 +4262,19 @@
         <v>220</v>
       </c>
       <c r="G114" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H114" t="n">
         <v>510304</v>
       </c>
       <c r="I114" t="n">
-        <v>2385176</v>
+        <v>2388632</v>
       </c>
       <c r="J114" t="b">
         <v>1</v>
       </c>
       <c r="K114" t="n">
-        <v>17.17</v>
+        <v>148.58</v>
       </c>
     </row>
     <row r="115">
@@ -4299,19 +4299,19 @@
         <v>220</v>
       </c>
       <c r="G115" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H115" t="n">
         <v>510304</v>
       </c>
       <c r="I115" t="n">
-        <v>2387509</v>
+        <v>2390968</v>
       </c>
       <c r="J115" t="b">
         <v>1</v>
       </c>
       <c r="K115" t="n">
-        <v>19</v>
+        <v>115.84</v>
       </c>
     </row>
     <row r="116">
@@ -4336,19 +4336,19 @@
         <v>220</v>
       </c>
       <c r="G116" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H116" t="n">
         <v>510304</v>
       </c>
       <c r="I116" t="n">
-        <v>2389842</v>
+        <v>2393304</v>
       </c>
       <c r="J116" t="b">
         <v>1</v>
       </c>
       <c r="K116" t="n">
-        <v>71.48999999999999</v>
+        <v>123.19</v>
       </c>
     </row>
     <row r="117">
@@ -4373,19 +4373,19 @@
         <v>220</v>
       </c>
       <c r="G117" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H117" t="n">
         <v>510304</v>
       </c>
       <c r="I117" t="n">
-        <v>2392175</v>
+        <v>2395640</v>
       </c>
       <c r="J117" t="b">
         <v>1</v>
       </c>
       <c r="K117" t="n">
-        <v>90.25</v>
+        <v>224.54</v>
       </c>
     </row>
     <row r="118">
@@ -4410,19 +4410,19 @@
         <v>220</v>
       </c>
       <c r="G118" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H118" t="n">
         <v>510304</v>
       </c>
       <c r="I118" t="n">
-        <v>2394508</v>
+        <v>2397976</v>
       </c>
       <c r="J118" t="b">
         <v>1</v>
       </c>
       <c r="K118" t="n">
-        <v>58.53</v>
+        <v>109.77</v>
       </c>
     </row>
     <row r="119">
@@ -4447,19 +4447,19 @@
         <v>220</v>
       </c>
       <c r="G119" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H119" t="n">
         <v>510304</v>
       </c>
       <c r="I119" t="n">
-        <v>2396841</v>
+        <v>2400312</v>
       </c>
       <c r="J119" t="b">
         <v>1</v>
       </c>
       <c r="K119" t="n">
-        <v>87.28</v>
+        <v>362.16</v>
       </c>
     </row>
     <row r="120">
@@ -4484,19 +4484,19 @@
         <v>220</v>
       </c>
       <c r="G120" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H120" t="n">
         <v>510304</v>
       </c>
       <c r="I120" t="n">
-        <v>2399174</v>
+        <v>2402648</v>
       </c>
       <c r="J120" t="b">
         <v>1</v>
       </c>
       <c r="K120" t="n">
-        <v>17.38</v>
+        <v>88.34</v>
       </c>
     </row>
     <row r="121">
@@ -4521,19 +4521,19 @@
         <v>220</v>
       </c>
       <c r="G121" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H121" t="n">
         <v>510304</v>
       </c>
       <c r="I121" t="n">
-        <v>2401507</v>
+        <v>2404984</v>
       </c>
       <c r="J121" t="b">
         <v>1</v>
       </c>
       <c r="K121" t="n">
-        <v>140.92</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="122">
@@ -4558,19 +4558,19 @@
         <v>220</v>
       </c>
       <c r="G122" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H122" t="n">
         <v>510304</v>
       </c>
       <c r="I122" t="n">
-        <v>2403840</v>
+        <v>2407320</v>
       </c>
       <c r="J122" t="b">
         <v>1</v>
       </c>
       <c r="K122" t="n">
-        <v>96.59999999999999</v>
+        <v>131.74</v>
       </c>
     </row>
     <row r="123">
@@ -4595,216 +4595,216 @@
         <v>220</v>
       </c>
       <c r="G123" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H123" t="n">
         <v>510304</v>
       </c>
       <c r="I123" t="n">
-        <v>2406173</v>
-      </c>
-      <c r="J123" t="b">
-        <v>1</v>
-      </c>
+        <v>2409656</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>59.4</v>
+        <v>34.49</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Q-494_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>494</v>
-      </c>
-      <c r="C124" t="n">
-        <v>326</v>
-      </c>
-      <c r="D124" t="n">
-        <v>66</v>
-      </c>
-      <c r="E124" t="n">
-        <v>144</v>
-      </c>
-      <c r="F124" t="n">
-        <v>220</v>
-      </c>
-      <c r="G124" t="n">
-        <v>157</v>
-      </c>
-      <c r="H124" t="n">
-        <v>510304</v>
-      </c>
-      <c r="I124" t="n">
-        <v>2408506</v>
-      </c>
-      <c r="J124" t="b">
-        <v>1</v>
-      </c>
-      <c r="K124" t="n">
-        <v>92.22</v>
-      </c>
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Q-494_bus.mtx.rnd</t>
+          <t>R-dwt__503.mtx.rnd</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="C125" t="n">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="D125" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E125" t="n">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="F125" t="n">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="G125" t="n">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="H125" t="n">
-        <v>510304</v>
+        <v>551793</v>
       </c>
       <c r="I125" t="n">
-        <v>2410839</v>
+        <v>4055972</v>
       </c>
       <c r="J125" t="b">
         <v>1</v>
       </c>
       <c r="K125" t="n">
-        <v>467.22</v>
+        <v>28.89</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Q-494_bus.mtx.rnd</t>
+          <t>R-dwt__503.mtx.rnd</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="C126" t="n">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="D126" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E126" t="n">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="F126" t="n">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="G126" t="n">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="H126" t="n">
-        <v>510304</v>
+        <v>551793</v>
       </c>
       <c r="I126" t="n">
-        <v>2413172</v>
+        <v>4067014</v>
       </c>
       <c r="J126" t="b">
         <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>87.27</v>
+        <v>29.04</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Q-494_bus.mtx.rnd</t>
+          <t>R-dwt__503.mtx.rnd</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="C127" t="n">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="D127" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E127" t="n">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="F127" t="n">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="G127" t="n">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="H127" t="n">
-        <v>510304</v>
+        <v>551793</v>
       </c>
       <c r="I127" t="n">
-        <v>2415505</v>
+        <v>4078056</v>
       </c>
       <c r="J127" t="b">
         <v>1</v>
       </c>
       <c r="K127" t="n">
-        <v>277.25</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Q-494_bus.mtx.rnd</t>
+          <t>R-dwt__503.mtx.rnd</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="C128" t="n">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="D128" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E128" t="n">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="F128" t="n">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="G128" t="n">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="H128" t="n">
-        <v>510304</v>
+        <v>551793</v>
       </c>
       <c r="I128" t="n">
-        <v>2417838</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
+        <v>4089098</v>
+      </c>
+      <c r="J128" t="b">
+        <v>1</v>
+      </c>
       <c r="K128" t="n">
-        <v>70.56999999999999</v>
+        <v>22.89</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr"/>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>R-dwt__503.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>503</v>
+      </c>
+      <c r="C129" t="n">
+        <v>347</v>
+      </c>
+      <c r="D129" t="n">
+        <v>69</v>
+      </c>
+      <c r="E129" t="n">
+        <v>31</v>
+      </c>
+      <c r="F129" t="n">
+        <v>64</v>
+      </c>
+      <c r="G129" t="n">
+        <v>35</v>
+      </c>
+      <c r="H129" t="n">
+        <v>551793</v>
+      </c>
+      <c r="I129" t="n">
+        <v>4100140</v>
+      </c>
+      <c r="J129" t="b">
+        <v>1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>33.73</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4828,19 +4828,19 @@
         <v>64</v>
       </c>
       <c r="G130" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H130" t="n">
         <v>551793</v>
       </c>
       <c r="I130" t="n">
-        <v>4055192</v>
+        <v>4111182</v>
       </c>
       <c r="J130" t="b">
         <v>1</v>
       </c>
       <c r="K130" t="n">
-        <v>22.18</v>
+        <v>41.55</v>
       </c>
     </row>
     <row r="131">
@@ -4865,19 +4865,19 @@
         <v>64</v>
       </c>
       <c r="G131" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H131" t="n">
         <v>551793</v>
       </c>
       <c r="I131" t="n">
-        <v>4066234</v>
+        <v>4122224</v>
       </c>
       <c r="J131" t="b">
         <v>1</v>
       </c>
       <c r="K131" t="n">
-        <v>22.64</v>
+        <v>43.05</v>
       </c>
     </row>
     <row r="132">
@@ -4902,19 +4902,19 @@
         <v>64</v>
       </c>
       <c r="G132" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H132" t="n">
         <v>551793</v>
       </c>
       <c r="I132" t="n">
-        <v>4077276</v>
+        <v>4133266</v>
       </c>
       <c r="J132" t="b">
         <v>1</v>
       </c>
       <c r="K132" t="n">
-        <v>42.93</v>
+        <v>86.97</v>
       </c>
     </row>
     <row r="133">
@@ -4939,19 +4939,19 @@
         <v>64</v>
       </c>
       <c r="G133" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H133" t="n">
         <v>551793</v>
       </c>
       <c r="I133" t="n">
-        <v>4088318</v>
+        <v>4144308</v>
       </c>
       <c r="J133" t="b">
         <v>1</v>
       </c>
       <c r="K133" t="n">
-        <v>24.22</v>
+        <v>97.01000000000001</v>
       </c>
     </row>
     <row r="134">
@@ -4976,19 +4976,19 @@
         <v>64</v>
       </c>
       <c r="G134" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H134" t="n">
         <v>551793</v>
       </c>
       <c r="I134" t="n">
-        <v>4099360</v>
+        <v>4155350</v>
       </c>
       <c r="J134" t="b">
         <v>1</v>
       </c>
       <c r="K134" t="n">
-        <v>28.56</v>
+        <v>67.34999999999999</v>
       </c>
     </row>
     <row r="135">
@@ -5013,19 +5013,19 @@
         <v>64</v>
       </c>
       <c r="G135" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H135" t="n">
         <v>551793</v>
       </c>
       <c r="I135" t="n">
-        <v>4110402</v>
+        <v>4166392</v>
       </c>
       <c r="J135" t="b">
         <v>1</v>
       </c>
       <c r="K135" t="n">
-        <v>26.29</v>
+        <v>129.91</v>
       </c>
     </row>
     <row r="136">
@@ -5050,19 +5050,19 @@
         <v>64</v>
       </c>
       <c r="G136" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H136" t="n">
         <v>551793</v>
       </c>
       <c r="I136" t="n">
-        <v>4121444</v>
+        <v>4177434</v>
       </c>
       <c r="J136" t="b">
         <v>1</v>
       </c>
       <c r="K136" t="n">
-        <v>33.36</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="137">
@@ -5087,19 +5087,19 @@
         <v>64</v>
       </c>
       <c r="G137" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H137" t="n">
         <v>551793</v>
       </c>
       <c r="I137" t="n">
-        <v>4132486</v>
+        <v>4188476</v>
       </c>
       <c r="J137" t="b">
         <v>1</v>
       </c>
       <c r="K137" t="n">
-        <v>73.51000000000001</v>
+        <v>415.96</v>
       </c>
     </row>
     <row r="138">
@@ -5124,19 +5124,19 @@
         <v>64</v>
       </c>
       <c r="G138" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H138" t="n">
         <v>551793</v>
       </c>
       <c r="I138" t="n">
-        <v>4143528</v>
+        <v>4199518</v>
       </c>
       <c r="J138" t="b">
         <v>1</v>
       </c>
       <c r="K138" t="n">
-        <v>76.2</v>
+        <v>99.63</v>
       </c>
     </row>
     <row r="139">
@@ -5161,19 +5161,19 @@
         <v>64</v>
       </c>
       <c r="G139" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H139" t="n">
         <v>551793</v>
       </c>
       <c r="I139" t="n">
-        <v>4154570</v>
+        <v>4210560</v>
       </c>
       <c r="J139" t="b">
         <v>1</v>
       </c>
       <c r="K139" t="n">
-        <v>109.36</v>
+        <v>545</v>
       </c>
     </row>
     <row r="140">
@@ -5198,375 +5198,375 @@
         <v>64</v>
       </c>
       <c r="G140" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H140" t="n">
         <v>551793</v>
       </c>
       <c r="I140" t="n">
-        <v>4165612</v>
-      </c>
-      <c r="J140" t="b">
-        <v>1</v>
-      </c>
+        <v>4221602</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>110.09</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>R-dwt__503.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>503</v>
-      </c>
-      <c r="C141" t="n">
-        <v>347</v>
-      </c>
-      <c r="D141" t="n">
-        <v>69</v>
-      </c>
-      <c r="E141" t="n">
-        <v>31</v>
-      </c>
-      <c r="F141" t="n">
-        <v>64</v>
-      </c>
-      <c r="G141" t="n">
-        <v>42</v>
-      </c>
-      <c r="H141" t="n">
-        <v>551793</v>
-      </c>
-      <c r="I141" t="n">
-        <v>4176654</v>
-      </c>
-      <c r="J141" t="b">
-        <v>1</v>
-      </c>
-      <c r="K141" t="n">
-        <v>204.53</v>
-      </c>
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>R-dwt__503.mtx.rnd</t>
+          <t>S-sherman4.mtx.rnd</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="C142" t="n">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="D142" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E142" t="n">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F142" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="G142" t="n">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="H142" t="n">
-        <v>551793</v>
+        <v>556922</v>
       </c>
       <c r="I142" t="n">
-        <v>4187696</v>
+        <v>3483691</v>
       </c>
       <c r="J142" t="b">
         <v>1</v>
       </c>
       <c r="K142" t="n">
-        <v>256.81</v>
+        <v>123.59</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>R-dwt__503.mtx.rnd</t>
+          <t>S-sherman4.mtx.rnd</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="C143" t="n">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="D143" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E143" t="n">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F143" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="G143" t="n">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="H143" t="n">
-        <v>551793</v>
+        <v>556922</v>
       </c>
       <c r="I143" t="n">
-        <v>4198738</v>
+        <v>3489031</v>
       </c>
       <c r="J143" t="b">
         <v>1</v>
       </c>
       <c r="K143" t="n">
-        <v>109.16</v>
+        <v>898.42</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>R-dwt__503.mtx.rnd</t>
+          <t>S-sherman4.mtx.rnd</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="C144" t="n">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="D144" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E144" t="n">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F144" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="G144" t="n">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="H144" t="n">
-        <v>551793</v>
+        <v>556922</v>
       </c>
       <c r="I144" t="n">
-        <v>4209780</v>
-      </c>
-      <c r="J144" t="b">
-        <v>1</v>
-      </c>
+        <v>3494371</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>200.77</v>
+        <v>797.92</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>R-dwt__503.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>503</v>
-      </c>
-      <c r="C145" t="n">
-        <v>347</v>
-      </c>
-      <c r="D145" t="n">
-        <v>69</v>
-      </c>
-      <c r="E145" t="n">
-        <v>31</v>
-      </c>
-      <c r="F145" t="n">
-        <v>64</v>
-      </c>
-      <c r="G145" t="n">
-        <v>46</v>
-      </c>
-      <c r="H145" t="n">
-        <v>551793</v>
-      </c>
-      <c r="I145" t="n">
-        <v>4220822</v>
-      </c>
-      <c r="J145" t="b">
-        <v>1</v>
-      </c>
-      <c r="K145" t="n">
-        <v>319.86</v>
-      </c>
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>R-dwt__503.mtx.rnd</t>
+          <t>T-dwt__592.mtx.rnd</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>503</v>
+        <v>592</v>
       </c>
       <c r="C146" t="n">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="D146" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E146" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F146" t="n">
+        <v>104</v>
+      </c>
+      <c r="G146" t="n">
+        <v>65</v>
+      </c>
+      <c r="H146" t="n">
+        <v>705074</v>
+      </c>
+      <c r="I146" t="n">
+        <v>4591298</v>
+      </c>
+      <c r="J146" t="b">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>36.38</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>T-dwt__592.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>592</v>
+      </c>
+      <c r="C147" t="n">
+        <v>378</v>
+      </c>
+      <c r="D147" t="n">
         <v>64</v>
       </c>
-      <c r="G146" t="n">
-        <v>47</v>
-      </c>
-      <c r="H146" t="n">
-        <v>551793</v>
-      </c>
-      <c r="I146" t="n">
-        <v>4231864</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>150.64</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr"/>
-      <c r="B147" t="inlineStr"/>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="E147" t="n">
+        <v>65</v>
+      </c>
+      <c r="F147" t="n">
+        <v>104</v>
+      </c>
+      <c r="G147" t="n">
+        <v>66</v>
+      </c>
+      <c r="H147" t="n">
+        <v>705074</v>
+      </c>
+      <c r="I147" t="n">
+        <v>4600316</v>
+      </c>
+      <c r="J147" t="b">
+        <v>1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>62.8</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>S-sherman4.mtx.rnd</t>
+          <t>T-dwt__592.mtx.rnd</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>546</v>
+        <v>592</v>
       </c>
       <c r="C148" t="n">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="D148" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E148" t="n">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="F148" t="n">
-        <v>256</v>
+        <v>104</v>
       </c>
       <c r="G148" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="H148" t="n">
-        <v>556922</v>
+        <v>705074</v>
       </c>
       <c r="I148" t="n">
-        <v>3481083</v>
+        <v>4609334</v>
       </c>
       <c r="J148" t="b">
         <v>1</v>
       </c>
       <c r="K148" t="n">
-        <v>425.81</v>
+        <v>66.26000000000001</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>S-sherman4.mtx.rnd</t>
+          <t>T-dwt__592.mtx.rnd</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>546</v>
+        <v>592</v>
       </c>
       <c r="C149" t="n">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="D149" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E149" t="n">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="F149" t="n">
-        <v>256</v>
+        <v>104</v>
       </c>
       <c r="G149" t="n">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="H149" t="n">
-        <v>556922</v>
+        <v>705074</v>
       </c>
       <c r="I149" t="n">
-        <v>3486409</v>
+        <v>4618352</v>
       </c>
       <c r="J149" t="b">
         <v>1</v>
       </c>
       <c r="K149" t="n">
-        <v>678.09</v>
+        <v>73.44</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>S-sherman4.mtx.rnd</t>
+          <t>T-dwt__592.mtx.rnd</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>546</v>
+        <v>592</v>
       </c>
       <c r="C150" t="n">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="D150" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E150" t="n">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="F150" t="n">
-        <v>256</v>
+        <v>104</v>
       </c>
       <c r="G150" t="n">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="H150" t="n">
-        <v>556922</v>
+        <v>705074</v>
       </c>
       <c r="I150" t="n">
-        <v>3491735</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
+        <v>4627370</v>
+      </c>
+      <c r="J150" t="b">
+        <v>1</v>
+      </c>
       <c r="K150" t="n">
-        <v>745.92</v>
+        <v>36.73</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr"/>
-      <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>T-dwt__592.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>592</v>
+      </c>
+      <c r="C151" t="n">
+        <v>378</v>
+      </c>
+      <c r="D151" t="n">
+        <v>64</v>
+      </c>
+      <c r="E151" t="n">
+        <v>65</v>
+      </c>
+      <c r="F151" t="n">
+        <v>104</v>
+      </c>
+      <c r="G151" t="n">
+        <v>70</v>
+      </c>
+      <c r="H151" t="n">
+        <v>705074</v>
+      </c>
+      <c r="I151" t="n">
+        <v>4636388</v>
+      </c>
+      <c r="J151" t="b">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>48.64</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5590,19 +5590,19 @@
         <v>104</v>
       </c>
       <c r="G152" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H152" t="n">
         <v>705074</v>
       </c>
       <c r="I152" t="n">
-        <v>4589364</v>
+        <v>4645406</v>
       </c>
       <c r="J152" t="b">
         <v>1</v>
       </c>
       <c r="K152" t="n">
-        <v>26.66</v>
+        <v>91.08</v>
       </c>
     </row>
     <row r="153">
@@ -5627,19 +5627,19 @@
         <v>104</v>
       </c>
       <c r="G153" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H153" t="n">
         <v>705074</v>
       </c>
       <c r="I153" t="n">
-        <v>4598346</v>
+        <v>4654424</v>
       </c>
       <c r="J153" t="b">
         <v>1</v>
       </c>
       <c r="K153" t="n">
-        <v>28.12</v>
+        <v>89.36</v>
       </c>
     </row>
     <row r="154">
@@ -5664,19 +5664,19 @@
         <v>104</v>
       </c>
       <c r="G154" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H154" t="n">
         <v>705074</v>
       </c>
       <c r="I154" t="n">
-        <v>4607328</v>
+        <v>4663442</v>
       </c>
       <c r="J154" t="b">
         <v>1</v>
       </c>
       <c r="K154" t="n">
-        <v>54.83</v>
+        <v>106.46</v>
       </c>
     </row>
     <row r="155">
@@ -5701,19 +5701,19 @@
         <v>104</v>
       </c>
       <c r="G155" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H155" t="n">
         <v>705074</v>
       </c>
       <c r="I155" t="n">
-        <v>4616310</v>
+        <v>4672460</v>
       </c>
       <c r="J155" t="b">
         <v>1</v>
       </c>
       <c r="K155" t="n">
-        <v>38.98</v>
+        <v>149.82</v>
       </c>
     </row>
     <row r="156">
@@ -5738,19 +5738,19 @@
         <v>104</v>
       </c>
       <c r="G156" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H156" t="n">
         <v>705074</v>
       </c>
       <c r="I156" t="n">
-        <v>4625292</v>
+        <v>4681478</v>
       </c>
       <c r="J156" t="b">
         <v>1</v>
       </c>
       <c r="K156" t="n">
-        <v>40.69</v>
+        <v>167.75</v>
       </c>
     </row>
     <row r="157">
@@ -5775,19 +5775,19 @@
         <v>104</v>
       </c>
       <c r="G157" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H157" t="n">
         <v>705074</v>
       </c>
       <c r="I157" t="n">
-        <v>4634274</v>
+        <v>4690496</v>
       </c>
       <c r="J157" t="b">
         <v>1</v>
       </c>
       <c r="K157" t="n">
-        <v>77.25</v>
+        <v>127.83</v>
       </c>
     </row>
     <row r="158">
@@ -5812,19 +5812,19 @@
         <v>104</v>
       </c>
       <c r="G158" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H158" t="n">
         <v>705074</v>
       </c>
       <c r="I158" t="n">
-        <v>4643256</v>
+        <v>4699514</v>
       </c>
       <c r="J158" t="b">
         <v>1</v>
       </c>
       <c r="K158" t="n">
-        <v>75.17</v>
+        <v>183.3</v>
       </c>
     </row>
     <row r="159">
@@ -5849,19 +5849,19 @@
         <v>104</v>
       </c>
       <c r="G159" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H159" t="n">
         <v>705074</v>
       </c>
       <c r="I159" t="n">
-        <v>4652238</v>
+        <v>4708532</v>
       </c>
       <c r="J159" t="b">
         <v>1</v>
       </c>
       <c r="K159" t="n">
-        <v>96.5</v>
+        <v>146.36</v>
       </c>
     </row>
     <row r="160">
@@ -5886,19 +5886,19 @@
         <v>104</v>
       </c>
       <c r="G160" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H160" t="n">
         <v>705074</v>
       </c>
       <c r="I160" t="n">
-        <v>4661220</v>
+        <v>4717550</v>
       </c>
       <c r="J160" t="b">
         <v>1</v>
       </c>
       <c r="K160" t="n">
-        <v>98.67</v>
+        <v>395.01</v>
       </c>
     </row>
     <row r="161">
@@ -5923,916 +5923,546 @@
         <v>104</v>
       </c>
       <c r="G161" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H161" t="n">
         <v>705074</v>
       </c>
       <c r="I161" t="n">
-        <v>4670202</v>
-      </c>
-      <c r="J161" t="b">
-        <v>1</v>
-      </c>
+        <v>4726568</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>169.1</v>
+        <v>20.01</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>T-dwt__592.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>592</v>
-      </c>
-      <c r="C162" t="n">
-        <v>378</v>
-      </c>
-      <c r="D162" t="n">
-        <v>64</v>
-      </c>
-      <c r="E162" t="n">
-        <v>65</v>
-      </c>
-      <c r="F162" t="n">
-        <v>104</v>
-      </c>
-      <c r="G162" t="n">
-        <v>75</v>
-      </c>
-      <c r="H162" t="n">
-        <v>705074</v>
-      </c>
-      <c r="I162" t="n">
-        <v>4679184</v>
-      </c>
-      <c r="J162" t="b">
-        <v>1</v>
-      </c>
-      <c r="K162" t="n">
-        <v>233.46</v>
-      </c>
+      <c r="A162" t="inlineStr"/>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>T-dwt__592.mtx.rnd</t>
+          <t>U-662_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="C163" t="n">
-        <v>378</v>
+        <v>516</v>
       </c>
       <c r="D163" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E163" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="F163" t="n">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="G163" t="n">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="H163" t="n">
-        <v>705074</v>
+        <v>1068470</v>
       </c>
       <c r="I163" t="n">
-        <v>4688166</v>
+        <v>5049763</v>
       </c>
       <c r="J163" t="b">
         <v>1</v>
       </c>
       <c r="K163" t="n">
-        <v>81.93000000000001</v>
+        <v>29.82</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>T-dwt__592.mtx.rnd</t>
+          <t>U-662_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="C164" t="n">
-        <v>378</v>
+        <v>516</v>
       </c>
       <c r="D164" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E164" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="F164" t="n">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="G164" t="n">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="H164" t="n">
-        <v>705074</v>
+        <v>1068470</v>
       </c>
       <c r="I164" t="n">
-        <v>4697148</v>
+        <v>5053367</v>
       </c>
       <c r="J164" t="b">
         <v>1</v>
       </c>
       <c r="K164" t="n">
-        <v>124.61</v>
+        <v>31.14</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>T-dwt__592.mtx.rnd</t>
+          <t>U-662_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="C165" t="n">
-        <v>378</v>
+        <v>516</v>
       </c>
       <c r="D165" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E165" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="F165" t="n">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="G165" t="n">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="H165" t="n">
-        <v>705074</v>
+        <v>1068470</v>
       </c>
       <c r="I165" t="n">
-        <v>4706130</v>
+        <v>5056971</v>
       </c>
       <c r="J165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>70.75</v>
+        <v>25.76</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>T-dwt__592.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>592</v>
-      </c>
-      <c r="C166" t="n">
-        <v>378</v>
-      </c>
-      <c r="D166" t="n">
-        <v>64</v>
-      </c>
-      <c r="E166" t="n">
-        <v>65</v>
-      </c>
-      <c r="F166" t="n">
-        <v>104</v>
-      </c>
-      <c r="G166" t="n">
-        <v>79</v>
-      </c>
-      <c r="H166" t="n">
-        <v>705074</v>
-      </c>
-      <c r="I166" t="n">
-        <v>4715112</v>
-      </c>
-      <c r="J166" t="b">
-        <v>1</v>
-      </c>
-      <c r="K166" t="n">
-        <v>156.73</v>
-      </c>
+      <c r="A166" t="inlineStr"/>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>T-dwt__592.mtx.rnd</t>
+          <t>V-nos6.mtx.rnd</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>592</v>
+        <v>675</v>
       </c>
       <c r="C167" t="n">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="D167" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E167" t="n">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="F167" t="n">
-        <v>104</v>
+        <v>326</v>
       </c>
       <c r="G167" t="n">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="H167" t="n">
-        <v>705074</v>
+        <v>860627</v>
       </c>
       <c r="I167" t="n">
-        <v>4724094</v>
-      </c>
-      <c r="J167" t="b">
-        <v>1</v>
-      </c>
+        <v>4858786</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>163.96</v>
+        <v>1858.95</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>T-dwt__592.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>592</v>
-      </c>
-      <c r="C168" t="n">
-        <v>378</v>
-      </c>
-      <c r="D168" t="n">
-        <v>64</v>
-      </c>
-      <c r="E168" t="n">
-        <v>65</v>
-      </c>
-      <c r="F168" t="n">
-        <v>104</v>
-      </c>
-      <c r="G168" t="n">
-        <v>81</v>
-      </c>
-      <c r="H168" t="n">
-        <v>705074</v>
-      </c>
-      <c r="I168" t="n">
-        <v>4733076</v>
-      </c>
+      <c r="A168" t="inlineStr"/>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>280.3</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr"/>
-      <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>W-685_bus.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>685</v>
+      </c>
+      <c r="C169" t="n">
+        <v>397</v>
+      </c>
+      <c r="D169" t="n">
+        <v>58</v>
+      </c>
+      <c r="E169" t="n">
+        <v>78</v>
+      </c>
+      <c r="F169" t="n">
+        <v>136</v>
+      </c>
+      <c r="G169" t="n">
+        <v>78</v>
+      </c>
+      <c r="H169" t="n">
+        <v>855567</v>
+      </c>
+      <c r="I169" t="n">
+        <v>4210664</v>
+      </c>
+      <c r="J169" t="b">
+        <v>1</v>
+      </c>
+      <c r="K169" t="n">
+        <v>31.69</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>U-662_bus.mtx.rnd</t>
+          <t>W-685_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="C170" t="n">
-        <v>516</v>
+        <v>397</v>
       </c>
       <c r="D170" t="n">
+        <v>58</v>
+      </c>
+      <c r="E170" t="n">
         <v>78</v>
       </c>
-      <c r="E170" t="n">
-        <v>170</v>
-      </c>
       <c r="F170" t="n">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="G170" t="n">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="H170" t="n">
-        <v>1068470</v>
+        <v>855567</v>
       </c>
       <c r="I170" t="n">
-        <v>5048376</v>
+        <v>4215790</v>
       </c>
       <c r="J170" t="b">
         <v>1</v>
       </c>
       <c r="K170" t="n">
-        <v>30.06</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>U-662_bus.mtx.rnd</t>
+          <t>W-685_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="C171" t="n">
-        <v>516</v>
+        <v>397</v>
       </c>
       <c r="D171" t="n">
+        <v>58</v>
+      </c>
+      <c r="E171" t="n">
         <v>78</v>
       </c>
-      <c r="E171" t="n">
-        <v>170</v>
-      </c>
       <c r="F171" t="n">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="G171" t="n">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="H171" t="n">
-        <v>1068470</v>
+        <v>855567</v>
       </c>
       <c r="I171" t="n">
-        <v>5051980</v>
+        <v>4220916</v>
       </c>
       <c r="J171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>29.84</v>
+        <v>44.03</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>U-662_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>662</v>
-      </c>
-      <c r="C172" t="n">
-        <v>516</v>
-      </c>
-      <c r="D172" t="n">
+      <c r="A172" t="inlineStr"/>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>X-can__715.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>715</v>
+      </c>
+      <c r="C173" t="n">
+        <v>500</v>
+      </c>
+      <c r="D173" t="n">
+        <v>70</v>
+      </c>
+      <c r="E173" t="n">
         <v>78</v>
       </c>
-      <c r="E172" t="n">
-        <v>170</v>
-      </c>
-      <c r="F172" t="n">
-        <v>220</v>
-      </c>
-      <c r="G172" t="n">
-        <v>172</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1068470</v>
-      </c>
-      <c r="I172" t="n">
-        <v>5055584</v>
-      </c>
-      <c r="J172" t="b">
-        <v>0</v>
-      </c>
-      <c r="K172" t="n">
-        <v>20.22</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr"/>
-      <c r="B173" t="inlineStr"/>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="F173" t="n">
+        <v>113</v>
+      </c>
+      <c r="G173" t="n">
+        <v>78</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1118977</v>
+      </c>
+      <c r="I173" t="n">
+        <v>7567349</v>
+      </c>
+      <c r="J173" t="b">
+        <v>1</v>
+      </c>
+      <c r="K173" t="n">
+        <v>177.35</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>V-nos6.mtx.rnd</t>
+          <t>X-can__715.mtx.rnd</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>675</v>
+        <v>715</v>
       </c>
       <c r="C174" t="n">
-        <v>405</v>
+        <v>500</v>
       </c>
       <c r="D174" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E174" t="n">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="F174" t="n">
-        <v>326</v>
+        <v>113</v>
       </c>
       <c r="G174" t="n">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="H174" t="n">
-        <v>860627</v>
+        <v>1118977</v>
       </c>
       <c r="I174" t="n">
-        <v>4855162</v>
+        <v>7579247</v>
       </c>
       <c r="J174" t="b">
         <v>1</v>
       </c>
       <c r="K174" t="n">
-        <v>1609.06</v>
+        <v>178.17</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>V-nos6.mtx.rnd</t>
+          <t>X-can__715.mtx.rnd</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>675</v>
+        <v>715</v>
       </c>
       <c r="C175" t="n">
-        <v>405</v>
+        <v>500</v>
       </c>
       <c r="D175" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E175" t="n">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="F175" t="n">
-        <v>326</v>
+        <v>113</v>
       </c>
       <c r="G175" t="n">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="H175" t="n">
-        <v>860627</v>
+        <v>1118977</v>
       </c>
       <c r="I175" t="n">
-        <v>4860280</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
+        <v>7591145</v>
+      </c>
+      <c r="J175" t="b">
+        <v>1</v>
+      </c>
       <c r="K175" t="n">
-        <v>205.75</v>
+        <v>329.3</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr"/>
-      <c r="B176" t="inlineStr"/>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>X-can__715.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>715</v>
+      </c>
+      <c r="C176" t="n">
+        <v>500</v>
+      </c>
+      <c r="D176" t="n">
+        <v>70</v>
+      </c>
+      <c r="E176" t="n">
+        <v>78</v>
+      </c>
+      <c r="F176" t="n">
+        <v>113</v>
+      </c>
+      <c r="G176" t="n">
+        <v>81</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1118977</v>
+      </c>
+      <c r="I176" t="n">
+        <v>7603043</v>
+      </c>
+      <c r="J176" t="b">
+        <v>1</v>
+      </c>
+      <c r="K176" t="n">
+        <v>374.31</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>W-685_bus.mtx.rnd</t>
+          <t>X-can__715.mtx.rnd</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="C177" t="n">
-        <v>397</v>
+        <v>500</v>
       </c>
       <c r="D177" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E177" t="n">
         <v>78</v>
       </c>
       <c r="F177" t="n">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="G177" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H177" t="n">
-        <v>855567</v>
+        <v>1118977</v>
       </c>
       <c r="I177" t="n">
-        <v>4209019</v>
+        <v>7614941</v>
       </c>
       <c r="J177" t="b">
         <v>1</v>
       </c>
       <c r="K177" t="n">
-        <v>23.36</v>
+        <v>438.59</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>W-685_bus.mtx.rnd</t>
+          <t>X-can__715.mtx.rnd</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="C178" t="n">
-        <v>397</v>
+        <v>500</v>
       </c>
       <c r="D178" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E178" t="n">
         <v>78</v>
       </c>
       <c r="F178" t="n">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="G178" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H178" t="n">
-        <v>855567</v>
+        <v>1118977</v>
       </c>
       <c r="I178" t="n">
-        <v>4214138</v>
-      </c>
-      <c r="J178" t="b">
-        <v>1</v>
-      </c>
+        <v>7626839</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>21.55</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>W-685_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>685</v>
-      </c>
-      <c r="C179" t="n">
-        <v>397</v>
-      </c>
-      <c r="D179" t="n">
-        <v>58</v>
-      </c>
-      <c r="E179" t="n">
-        <v>78</v>
-      </c>
-      <c r="F179" t="n">
-        <v>136</v>
-      </c>
-      <c r="G179" t="n">
-        <v>80</v>
-      </c>
-      <c r="H179" t="n">
-        <v>855567</v>
-      </c>
-      <c r="I179" t="n">
-        <v>4219257</v>
-      </c>
-      <c r="J179" t="b">
-        <v>0</v>
-      </c>
-      <c r="K179" t="n">
-        <v>41.87</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr"/>
-      <c r="B180" t="inlineStr"/>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>X-can__715.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>715</v>
-      </c>
-      <c r="C181" t="n">
-        <v>500</v>
-      </c>
-      <c r="D181" t="n">
-        <v>70</v>
-      </c>
-      <c r="E181" t="n">
-        <v>78</v>
-      </c>
-      <c r="F181" t="n">
-        <v>113</v>
-      </c>
-      <c r="G181" t="n">
-        <v>78</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1118977</v>
-      </c>
-      <c r="I181" t="n">
-        <v>7564335</v>
-      </c>
-      <c r="J181" t="b">
-        <v>1</v>
-      </c>
-      <c r="K181" t="n">
-        <v>130.08</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>X-can__715.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>715</v>
-      </c>
-      <c r="C182" t="n">
-        <v>500</v>
-      </c>
-      <c r="D182" t="n">
-        <v>70</v>
-      </c>
-      <c r="E182" t="n">
-        <v>78</v>
-      </c>
-      <c r="F182" t="n">
-        <v>113</v>
-      </c>
-      <c r="G182" t="n">
-        <v>79</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1118977</v>
-      </c>
-      <c r="I182" t="n">
-        <v>7575901</v>
-      </c>
-      <c r="J182" t="b">
-        <v>1</v>
-      </c>
-      <c r="K182" t="n">
-        <v>71.77</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>X-can__715.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>715</v>
-      </c>
-      <c r="C183" t="n">
-        <v>500</v>
-      </c>
-      <c r="D183" t="n">
-        <v>70</v>
-      </c>
-      <c r="E183" t="n">
-        <v>78</v>
-      </c>
-      <c r="F183" t="n">
-        <v>113</v>
-      </c>
-      <c r="G183" t="n">
-        <v>80</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1118977</v>
-      </c>
-      <c r="I183" t="n">
-        <v>7587467</v>
-      </c>
-      <c r="J183" t="b">
-        <v>1</v>
-      </c>
-      <c r="K183" t="n">
-        <v>154.29</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>X-can__715.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>715</v>
-      </c>
-      <c r="C184" t="n">
-        <v>500</v>
-      </c>
-      <c r="D184" t="n">
-        <v>70</v>
-      </c>
-      <c r="E184" t="n">
-        <v>78</v>
-      </c>
-      <c r="F184" t="n">
-        <v>113</v>
-      </c>
-      <c r="G184" t="n">
-        <v>81</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1118977</v>
-      </c>
-      <c r="I184" t="n">
-        <v>7599033</v>
-      </c>
-      <c r="J184" t="b">
-        <v>1</v>
-      </c>
-      <c r="K184" t="n">
-        <v>202.13</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>X-can__715.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>715</v>
-      </c>
-      <c r="C185" t="n">
-        <v>500</v>
-      </c>
-      <c r="D185" t="n">
-        <v>70</v>
-      </c>
-      <c r="E185" t="n">
-        <v>78</v>
-      </c>
-      <c r="F185" t="n">
-        <v>113</v>
-      </c>
-      <c r="G185" t="n">
-        <v>82</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1118977</v>
-      </c>
-      <c r="I185" t="n">
-        <v>7610599</v>
-      </c>
-      <c r="J185" t="b">
-        <v>1</v>
-      </c>
-      <c r="K185" t="n">
-        <v>412.04</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>X-can__715.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>715</v>
-      </c>
-      <c r="C186" t="n">
-        <v>500</v>
-      </c>
-      <c r="D186" t="n">
-        <v>70</v>
-      </c>
-      <c r="E186" t="n">
-        <v>78</v>
-      </c>
-      <c r="F186" t="n">
-        <v>113</v>
-      </c>
-      <c r="G186" t="n">
-        <v>83</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1118977</v>
-      </c>
-      <c r="I186" t="n">
-        <v>7622165</v>
-      </c>
-      <c r="J186" t="b">
-        <v>1</v>
-      </c>
-      <c r="K186" t="n">
-        <v>241.86</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>X-can__715.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>715</v>
-      </c>
-      <c r="C187" t="n">
-        <v>500</v>
-      </c>
-      <c r="D187" t="n">
-        <v>70</v>
-      </c>
-      <c r="E187" t="n">
-        <v>78</v>
-      </c>
-      <c r="F187" t="n">
-        <v>113</v>
-      </c>
-      <c r="G187" t="n">
-        <v>84</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1118977</v>
-      </c>
-      <c r="I187" t="n">
-        <v>7633731</v>
-      </c>
-      <c r="J187" t="b">
-        <v>1</v>
-      </c>
-      <c r="K187" t="n">
-        <v>215.16</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>X-can__715.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>715</v>
-      </c>
-      <c r="C188" t="n">
-        <v>500</v>
-      </c>
-      <c r="D188" t="n">
-        <v>70</v>
-      </c>
-      <c r="E188" t="n">
-        <v>78</v>
-      </c>
-      <c r="F188" t="n">
-        <v>113</v>
-      </c>
-      <c r="G188" t="n">
-        <v>85</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1118977</v>
-      </c>
-      <c r="I188" t="n">
-        <v>7645297</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>405.25</v>
+        <v>312.85</v>
       </c>
     </row>
   </sheetData>

--- a/output/output_version_2_painless.xlsx
+++ b/output/output_version_2_painless.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K178"/>
+  <dimension ref="A1:K158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,13 +566,13 @@
         <v>2432</v>
       </c>
       <c r="I4" t="n">
-        <v>13556</v>
+        <v>13557</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.14</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="5">
@@ -603,13 +603,13 @@
         <v>2432</v>
       </c>
       <c r="I5" t="n">
-        <v>13958</v>
+        <v>13959</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -640,13 +640,13 @@
         <v>2432</v>
       </c>
       <c r="I6" t="n">
-        <v>14360</v>
+        <v>14361</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.11</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="7">
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="9">
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
@@ -777,13 +777,13 @@
         <v>2849</v>
       </c>
       <c r="I11" t="n">
-        <v>11980</v>
+        <v>11982</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.11</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="12">
@@ -814,13 +814,13 @@
         <v>2849</v>
       </c>
       <c r="I12" t="n">
-        <v>12160</v>
+        <v>12162</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="13">
@@ -851,13 +851,13 @@
         <v>2849</v>
       </c>
       <c r="I13" t="n">
-        <v>12340</v>
+        <v>12342</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.09</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="14">
@@ -888,13 +888,13 @@
         <v>2849</v>
       </c>
       <c r="I14" t="n">
-        <v>10563</v>
+        <v>10565</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.11</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="15">
@@ -938,13 +938,13 @@
         <v>4898</v>
       </c>
       <c r="I16" t="n">
-        <v>27746</v>
+        <v>27745</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.13</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="17">
@@ -975,13 +975,13 @@
         <v>4898</v>
       </c>
       <c r="I17" t="n">
-        <v>28442</v>
+        <v>28441</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0.13</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="18">
@@ -1012,13 +1012,13 @@
         <v>4898</v>
       </c>
       <c r="I18" t="n">
-        <v>29138</v>
+        <v>29137</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.15</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="19">
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.11</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="21">
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
@@ -1142,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>0.13</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.13</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="24">
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0.13</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="26">
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0.12</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="27">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.13</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="28">
@@ -1347,13 +1347,13 @@
         <v>6158</v>
       </c>
       <c r="I29" t="n">
-        <v>29743</v>
+        <v>29742</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>0.11</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="30">
@@ -1384,13 +1384,13 @@
         <v>6158</v>
       </c>
       <c r="I30" t="n">
-        <v>30249</v>
+        <v>30248</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0.12</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="31">
@@ -1421,13 +1421,13 @@
         <v>6158</v>
       </c>
       <c r="I31" t="n">
-        <v>30755</v>
+        <v>30754</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.12</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="32">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>0.16</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="34">
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.39</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="35">
@@ -1564,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>0.3</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="37">
@@ -1601,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>0.31</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="38">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>0.38</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="39">
@@ -1675,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0.35</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="40">
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>17.77</v>
+        <v>262.1</v>
       </c>
     </row>
     <row r="41">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>1780.99</v>
+        <v>1531.17</v>
       </c>
     </row>
     <row r="42">
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>0.31</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="44">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>0.27</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="45">
@@ -1871,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="46">
@@ -1908,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>0.31</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="48">
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>16.66</v>
+        <v>105.56</v>
       </c>
     </row>
     <row r="49">
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>0.35</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="51">
@@ -2069,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>0.41</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="52">
@@ -2106,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>0.44</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="53">
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>0.43</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="54">
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>0.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="55">
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>0.84</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="56">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>3.34</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="57">
@@ -2291,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>9.449999999999999</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="58">
@@ -2328,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>108.53</v>
+        <v>399.34</v>
       </c>
     </row>
     <row r="59">
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0.34</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="60">
@@ -2415,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>0.32</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="62">
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0.29</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="63">
@@ -2502,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>15.07</v>
+        <v>49.33</v>
       </c>
     </row>
     <row r="65">
@@ -2539,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>16.43</v>
+        <v>149.12</v>
       </c>
     </row>
     <row r="66">
@@ -2576,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>25.31</v>
+        <v>334.53</v>
       </c>
     </row>
     <row r="67">
@@ -2613,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>41.87</v>
+        <v>669.4299999999999</v>
       </c>
     </row>
     <row r="68">
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>70.40000000000001</v>
+        <v>226.62</v>
       </c>
     </row>
     <row r="69">
@@ -2683,60 +2683,60 @@
       <c r="I69" t="n">
         <v>4188003</v>
       </c>
-      <c r="J69" t="b">
-        <v>1</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>1092.91</v>
+        <v>371.58</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>M-bcsstk06.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>420</v>
-      </c>
-      <c r="C70" t="n">
-        <v>323</v>
-      </c>
-      <c r="D70" t="n">
-        <v>77</v>
-      </c>
-      <c r="E70" t="n">
-        <v>21</v>
-      </c>
-      <c r="F70" t="n">
-        <v>35</v>
-      </c>
-      <c r="G70" t="n">
-        <v>27</v>
-      </c>
-      <c r="H70" t="n">
-        <v>429662</v>
-      </c>
-      <c r="I70" t="n">
-        <v>4202881</v>
-      </c>
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>538.27</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>O-impcol_d.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>425</v>
+      </c>
+      <c r="C71" t="n">
+        <v>221</v>
+      </c>
+      <c r="D71" t="n">
+        <v>52</v>
+      </c>
+      <c r="E71" t="n">
+        <v>47</v>
+      </c>
+      <c r="F71" t="n">
+        <v>102</v>
+      </c>
+      <c r="G71" t="n">
+        <v>47</v>
+      </c>
+      <c r="H71" t="n">
+        <v>301327</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1770928</v>
+      </c>
+      <c r="J71" t="b">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>22.08</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2760,19 +2760,19 @@
         <v>102</v>
       </c>
       <c r="G72" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H72" t="n">
         <v>301327</v>
       </c>
       <c r="I72" t="n">
-        <v>1770928</v>
+        <v>1775992</v>
       </c>
       <c r="J72" t="b">
         <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>8.279999999999999</v>
+        <v>16.29</v>
       </c>
     </row>
     <row r="73">
@@ -2797,19 +2797,19 @@
         <v>102</v>
       </c>
       <c r="G73" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H73" t="n">
         <v>301327</v>
       </c>
       <c r="I73" t="n">
-        <v>1775992</v>
+        <v>1781056</v>
       </c>
       <c r="J73" t="b">
         <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>7.78</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="74">
@@ -2834,19 +2834,19 @@
         <v>102</v>
       </c>
       <c r="G74" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H74" t="n">
         <v>301327</v>
       </c>
       <c r="I74" t="n">
-        <v>1781056</v>
+        <v>1786120</v>
       </c>
       <c r="J74" t="b">
         <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>9.08</v>
+        <v>15.08</v>
       </c>
     </row>
     <row r="75">
@@ -2871,19 +2871,19 @@
         <v>102</v>
       </c>
       <c r="G75" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H75" t="n">
         <v>301327</v>
       </c>
       <c r="I75" t="n">
-        <v>1786120</v>
+        <v>1791184</v>
       </c>
       <c r="J75" t="b">
         <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>8.93</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="76">
@@ -2908,19 +2908,19 @@
         <v>102</v>
       </c>
       <c r="G76" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H76" t="n">
         <v>301327</v>
       </c>
       <c r="I76" t="n">
-        <v>1791184</v>
+        <v>1796248</v>
       </c>
       <c r="J76" t="b">
         <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>8.59</v>
+        <v>16.82</v>
       </c>
     </row>
     <row r="77">
@@ -2945,19 +2945,19 @@
         <v>102</v>
       </c>
       <c r="G77" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H77" t="n">
         <v>301327</v>
       </c>
       <c r="I77" t="n">
-        <v>1796248</v>
+        <v>1801312</v>
       </c>
       <c r="J77" t="b">
         <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>8.33</v>
+        <v>16.71</v>
       </c>
     </row>
     <row r="78">
@@ -2982,19 +2982,19 @@
         <v>102</v>
       </c>
       <c r="G78" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H78" t="n">
         <v>301327</v>
       </c>
       <c r="I78" t="n">
-        <v>1801312</v>
+        <v>1806376</v>
       </c>
       <c r="J78" t="b">
         <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>8.98</v>
+        <v>28.51</v>
       </c>
     </row>
     <row r="79">
@@ -3019,19 +3019,19 @@
         <v>102</v>
       </c>
       <c r="G79" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H79" t="n">
         <v>301327</v>
       </c>
       <c r="I79" t="n">
-        <v>1806376</v>
+        <v>1811440</v>
       </c>
       <c r="J79" t="b">
         <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>8.48</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="80">
@@ -3056,19 +3056,19 @@
         <v>102</v>
       </c>
       <c r="G80" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H80" t="n">
         <v>301327</v>
       </c>
       <c r="I80" t="n">
-        <v>1811440</v>
+        <v>1816494</v>
       </c>
       <c r="J80" t="b">
         <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>8.59</v>
+        <v>14.96</v>
       </c>
     </row>
     <row r="81">
@@ -3093,19 +3093,19 @@
         <v>102</v>
       </c>
       <c r="G81" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H81" t="n">
         <v>301327</v>
       </c>
       <c r="I81" t="n">
-        <v>1816494</v>
+        <v>1821538</v>
       </c>
       <c r="J81" t="b">
         <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>9.06</v>
+        <v>14.85</v>
       </c>
     </row>
     <row r="82">
@@ -3130,19 +3130,19 @@
         <v>102</v>
       </c>
       <c r="G82" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H82" t="n">
         <v>301327</v>
       </c>
       <c r="I82" t="n">
-        <v>1821538</v>
+        <v>1826582</v>
       </c>
       <c r="J82" t="b">
         <v>1</v>
       </c>
       <c r="K82" t="n">
-        <v>8.609999999999999</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="83">
@@ -3167,19 +3167,19 @@
         <v>102</v>
       </c>
       <c r="G83" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H83" t="n">
         <v>301327</v>
       </c>
       <c r="I83" t="n">
-        <v>1826582</v>
+        <v>1831626</v>
       </c>
       <c r="J83" t="b">
         <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>9.06</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="84">
@@ -3204,19 +3204,19 @@
         <v>102</v>
       </c>
       <c r="G84" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H84" t="n">
         <v>301327</v>
       </c>
       <c r="I84" t="n">
-        <v>1831626</v>
+        <v>1836670</v>
       </c>
       <c r="J84" t="b">
         <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>8.31</v>
+        <v>16.23</v>
       </c>
     </row>
     <row r="85">
@@ -3241,19 +3241,19 @@
         <v>102</v>
       </c>
       <c r="G85" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H85" t="n">
         <v>301327</v>
       </c>
       <c r="I85" t="n">
-        <v>1836670</v>
+        <v>1841714</v>
       </c>
       <c r="J85" t="b">
         <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>9.34</v>
+        <v>15.77</v>
       </c>
     </row>
     <row r="86">
@@ -3278,19 +3278,19 @@
         <v>102</v>
       </c>
       <c r="G86" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H86" t="n">
         <v>301327</v>
       </c>
       <c r="I86" t="n">
-        <v>1841714</v>
+        <v>1846758</v>
       </c>
       <c r="J86" t="b">
         <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>11.84</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="87">
@@ -3315,19 +3315,19 @@
         <v>102</v>
       </c>
       <c r="G87" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H87" t="n">
         <v>301327</v>
       </c>
       <c r="I87" t="n">
-        <v>1846758</v>
+        <v>1851802</v>
       </c>
       <c r="J87" t="b">
         <v>1</v>
       </c>
       <c r="K87" t="n">
-        <v>8.949999999999999</v>
+        <v>18.19</v>
       </c>
     </row>
     <row r="88">
@@ -3352,19 +3352,19 @@
         <v>102</v>
       </c>
       <c r="G88" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H88" t="n">
         <v>301327</v>
       </c>
       <c r="I88" t="n">
-        <v>1851802</v>
+        <v>1856846</v>
       </c>
       <c r="J88" t="b">
         <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>15.24</v>
+        <v>89.14</v>
       </c>
     </row>
     <row r="89">
@@ -3389,19 +3389,19 @@
         <v>102</v>
       </c>
       <c r="G89" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H89" t="n">
         <v>301327</v>
       </c>
       <c r="I89" t="n">
-        <v>1856846</v>
+        <v>1861890</v>
       </c>
       <c r="J89" t="b">
         <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>9.84</v>
+        <v>239.19</v>
       </c>
     </row>
     <row r="90">
@@ -3426,19 +3426,19 @@
         <v>102</v>
       </c>
       <c r="G90" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H90" t="n">
         <v>301327</v>
       </c>
       <c r="I90" t="n">
-        <v>1861890</v>
+        <v>1866934</v>
       </c>
       <c r="J90" t="b">
         <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>17.2</v>
+        <v>91.64</v>
       </c>
     </row>
     <row r="91">
@@ -3463,19 +3463,19 @@
         <v>102</v>
       </c>
       <c r="G91" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H91" t="n">
         <v>301327</v>
       </c>
       <c r="I91" t="n">
-        <v>1866934</v>
+        <v>1871978</v>
       </c>
       <c r="J91" t="b">
         <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>11.15</v>
+        <v>228.07</v>
       </c>
     </row>
     <row r="92">
@@ -3500,19 +3500,19 @@
         <v>102</v>
       </c>
       <c r="G92" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H92" t="n">
         <v>301327</v>
       </c>
       <c r="I92" t="n">
-        <v>1871978</v>
+        <v>1877022</v>
       </c>
       <c r="J92" t="b">
         <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>16.08</v>
+        <v>798.34</v>
       </c>
     </row>
     <row r="93">
@@ -3537,179 +3537,179 @@
         <v>102</v>
       </c>
       <c r="G93" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H93" t="n">
         <v>301327</v>
       </c>
       <c r="I93" t="n">
-        <v>1877022</v>
-      </c>
-      <c r="J93" t="b">
-        <v>1</v>
-      </c>
+        <v>1882066</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>17.77</v>
+        <v>60.66</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>O-impcol_d.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>425</v>
-      </c>
-      <c r="C94" t="n">
-        <v>221</v>
-      </c>
-      <c r="D94" t="n">
-        <v>52</v>
-      </c>
-      <c r="E94" t="n">
-        <v>47</v>
-      </c>
-      <c r="F94" t="n">
-        <v>102</v>
-      </c>
-      <c r="G94" t="n">
-        <v>69</v>
-      </c>
-      <c r="H94" t="n">
-        <v>301327</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1882066</v>
-      </c>
-      <c r="J94" t="b">
-        <v>1</v>
-      </c>
-      <c r="K94" t="n">
-        <v>35.07</v>
-      </c>
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>O-impcol_d.mtx.rnd</t>
+          <t>P-can__445.mtx.rnd</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="C95" t="n">
-        <v>221</v>
+        <v>333</v>
       </c>
       <c r="D95" t="n">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E95" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F95" t="n">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G95" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="H95" t="n">
-        <v>301327</v>
+        <v>469032</v>
       </c>
       <c r="I95" t="n">
-        <v>1887110</v>
+        <v>3036446</v>
       </c>
       <c r="J95" t="b">
         <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>136.1</v>
+        <v>368.7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>O-impcol_d.mtx.rnd</t>
+          <t>P-can__445.mtx.rnd</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="C96" t="n">
-        <v>221</v>
+        <v>333</v>
       </c>
       <c r="D96" t="n">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E96" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F96" t="n">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G96" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="H96" t="n">
-        <v>301327</v>
+        <v>469032</v>
       </c>
       <c r="I96" t="n">
-        <v>1892154</v>
+        <v>3043168</v>
       </c>
       <c r="J96" t="b">
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>127.14</v>
+        <v>106.65</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>O-impcol_d.mtx.rnd</t>
+          <t>P-can__445.mtx.rnd</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="C97" t="n">
-        <v>221</v>
+        <v>333</v>
       </c>
       <c r="D97" t="n">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E97" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F97" t="n">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G97" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H97" t="n">
-        <v>301327</v>
+        <v>469032</v>
       </c>
       <c r="I97" t="n">
-        <v>1897198</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>3049890</v>
+      </c>
+      <c r="J97" t="b">
+        <v>1</v>
+      </c>
       <c r="K97" t="n">
-        <v>1272.39</v>
+        <v>359.71</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>P-can__445.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>445</v>
+      </c>
+      <c r="C98" t="n">
+        <v>333</v>
+      </c>
+      <c r="D98" t="n">
+        <v>75</v>
+      </c>
+      <c r="E98" t="n">
+        <v>58</v>
+      </c>
+      <c r="F98" t="n">
+        <v>79</v>
+      </c>
+      <c r="G98" t="n">
+        <v>61</v>
+      </c>
+      <c r="H98" t="n">
+        <v>469032</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3056612</v>
+      </c>
+      <c r="J98" t="b">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>372.97</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3733,364 +3733,364 @@
         <v>79</v>
       </c>
       <c r="G99" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H99" t="n">
         <v>469032</v>
       </c>
       <c r="I99" t="n">
-        <v>3036446</v>
-      </c>
-      <c r="J99" t="b">
-        <v>1</v>
-      </c>
+        <v>3063334</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>20.6</v>
+        <v>592.1</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>P-can__445.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>445</v>
-      </c>
-      <c r="C100" t="n">
-        <v>333</v>
-      </c>
-      <c r="D100" t="n">
-        <v>75</v>
-      </c>
-      <c r="E100" t="n">
-        <v>58</v>
-      </c>
-      <c r="F100" t="n">
-        <v>79</v>
-      </c>
-      <c r="G100" t="n">
-        <v>59</v>
-      </c>
-      <c r="H100" t="n">
-        <v>469032</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3043168</v>
-      </c>
-      <c r="J100" t="b">
-        <v>1</v>
-      </c>
-      <c r="K100" t="n">
-        <v>49.19</v>
-      </c>
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>P-can__445.mtx.rnd</t>
+          <t>Q-494_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="C101" t="n">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D101" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E101" t="n">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="F101" t="n">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="G101" t="n">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="H101" t="n">
-        <v>469032</v>
+        <v>510304</v>
       </c>
       <c r="I101" t="n">
-        <v>3049890</v>
+        <v>2379288</v>
       </c>
       <c r="J101" t="b">
         <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>89.53</v>
+        <v>31.86</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>P-can__445.mtx.rnd</t>
+          <t>Q-494_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="C102" t="n">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D102" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E102" t="n">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="F102" t="n">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="G102" t="n">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="H102" t="n">
-        <v>469032</v>
+        <v>510304</v>
       </c>
       <c r="I102" t="n">
-        <v>3056612</v>
+        <v>2381624</v>
       </c>
       <c r="J102" t="b">
         <v>1</v>
       </c>
       <c r="K102" t="n">
-        <v>85.31999999999999</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>P-can__445.mtx.rnd</t>
+          <t>Q-494_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="C103" t="n">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D103" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E103" t="n">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="F103" t="n">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="G103" t="n">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="H103" t="n">
-        <v>469032</v>
+        <v>510304</v>
       </c>
       <c r="I103" t="n">
-        <v>3063334</v>
+        <v>2383960</v>
       </c>
       <c r="J103" t="b">
         <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>70.53</v>
+        <v>42.63</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>P-can__445.mtx.rnd</t>
+          <t>Q-494_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="C104" t="n">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D104" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E104" t="n">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="F104" t="n">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="G104" t="n">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="H104" t="n">
-        <v>469032</v>
+        <v>510304</v>
       </c>
       <c r="I104" t="n">
-        <v>3070056</v>
+        <v>2386296</v>
       </c>
       <c r="J104" t="b">
         <v>1</v>
       </c>
       <c r="K104" t="n">
-        <v>87.66</v>
+        <v>48.51</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>P-can__445.mtx.rnd</t>
+          <t>Q-494_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="C105" t="n">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D105" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E105" t="n">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="F105" t="n">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="G105" t="n">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="H105" t="n">
-        <v>469032</v>
+        <v>510304</v>
       </c>
       <c r="I105" t="n">
-        <v>3076778</v>
+        <v>2388632</v>
       </c>
       <c r="J105" t="b">
         <v>1</v>
       </c>
       <c r="K105" t="n">
-        <v>203.13</v>
+        <v>39.92</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>P-can__445.mtx.rnd</t>
+          <t>Q-494_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="C106" t="n">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D106" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E106" t="n">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="F106" t="n">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="G106" t="n">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="H106" t="n">
-        <v>469032</v>
+        <v>510304</v>
       </c>
       <c r="I106" t="n">
-        <v>3083500</v>
+        <v>2390968</v>
       </c>
       <c r="J106" t="b">
         <v>1</v>
       </c>
       <c r="K106" t="n">
-        <v>464.66</v>
+        <v>84.19</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>P-can__445.mtx.rnd</t>
+          <t>Q-494_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="C107" t="n">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D107" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E107" t="n">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="F107" t="n">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="G107" t="n">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="H107" t="n">
-        <v>469032</v>
+        <v>510304</v>
       </c>
       <c r="I107" t="n">
-        <v>3090222</v>
+        <v>2393304</v>
       </c>
       <c r="J107" t="b">
         <v>1</v>
       </c>
       <c r="K107" t="n">
-        <v>654.47</v>
+        <v>43.98</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>P-can__445.mtx.rnd</t>
+          <t>Q-494_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="C108" t="n">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D108" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E108" t="n">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="F108" t="n">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="G108" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="H108" t="n">
-        <v>469032</v>
+        <v>510304</v>
       </c>
       <c r="I108" t="n">
-        <v>3096944</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>2395640</v>
+      </c>
+      <c r="J108" t="b">
+        <v>1</v>
+      </c>
       <c r="K108" t="n">
-        <v>75.17</v>
+        <v>112.67</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr"/>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Q-494_bus.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>494</v>
+      </c>
+      <c r="C109" t="n">
+        <v>326</v>
+      </c>
+      <c r="D109" t="n">
+        <v>66</v>
+      </c>
+      <c r="E109" t="n">
+        <v>144</v>
+      </c>
+      <c r="F109" t="n">
+        <v>220</v>
+      </c>
+      <c r="G109" t="n">
+        <v>152</v>
+      </c>
+      <c r="H109" t="n">
+        <v>510304</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2397976</v>
+      </c>
+      <c r="J109" t="b">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>59.52</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4114,19 +4114,19 @@
         <v>220</v>
       </c>
       <c r="G110" t="n">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="H110" t="n">
         <v>510304</v>
       </c>
       <c r="I110" t="n">
-        <v>2379288</v>
+        <v>2400312</v>
       </c>
       <c r="J110" t="b">
         <v>1</v>
       </c>
       <c r="K110" t="n">
-        <v>85.27</v>
+        <v>42.85</v>
       </c>
     </row>
     <row r="111">
@@ -4151,19 +4151,19 @@
         <v>220</v>
       </c>
       <c r="G111" t="n">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H111" t="n">
         <v>510304</v>
       </c>
       <c r="I111" t="n">
-        <v>2381624</v>
+        <v>2402648</v>
       </c>
       <c r="J111" t="b">
         <v>1</v>
       </c>
       <c r="K111" t="n">
-        <v>106.33</v>
+        <v>106.12</v>
       </c>
     </row>
     <row r="112">
@@ -4188,19 +4188,19 @@
         <v>220</v>
       </c>
       <c r="G112" t="n">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H112" t="n">
         <v>510304</v>
       </c>
       <c r="I112" t="n">
-        <v>2383960</v>
+        <v>2404984</v>
       </c>
       <c r="J112" t="b">
         <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>92.59999999999999</v>
+        <v>158.2</v>
       </c>
     </row>
     <row r="113">
@@ -4225,19 +4225,19 @@
         <v>220</v>
       </c>
       <c r="G113" t="n">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H113" t="n">
         <v>510304</v>
       </c>
       <c r="I113" t="n">
-        <v>2386296</v>
+        <v>2407320</v>
       </c>
       <c r="J113" t="b">
         <v>1</v>
       </c>
       <c r="K113" t="n">
-        <v>103.19</v>
+        <v>197.64</v>
       </c>
     </row>
     <row r="114">
@@ -4262,19 +4262,19 @@
         <v>220</v>
       </c>
       <c r="G114" t="n">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="H114" t="n">
         <v>510304</v>
       </c>
       <c r="I114" t="n">
-        <v>2388632</v>
+        <v>2409656</v>
       </c>
       <c r="J114" t="b">
         <v>1</v>
       </c>
       <c r="K114" t="n">
-        <v>148.58</v>
+        <v>174.99</v>
       </c>
     </row>
     <row r="115">
@@ -4299,19 +4299,19 @@
         <v>220</v>
       </c>
       <c r="G115" t="n">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H115" t="n">
         <v>510304</v>
       </c>
       <c r="I115" t="n">
-        <v>2390968</v>
+        <v>2411992</v>
       </c>
       <c r="J115" t="b">
         <v>1</v>
       </c>
       <c r="K115" t="n">
-        <v>115.84</v>
+        <v>92.03</v>
       </c>
     </row>
     <row r="116">
@@ -4336,19 +4336,19 @@
         <v>220</v>
       </c>
       <c r="G116" t="n">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="H116" t="n">
         <v>510304</v>
       </c>
       <c r="I116" t="n">
-        <v>2393304</v>
+        <v>2414328</v>
       </c>
       <c r="J116" t="b">
         <v>1</v>
       </c>
       <c r="K116" t="n">
-        <v>123.19</v>
+        <v>308.13</v>
       </c>
     </row>
     <row r="117">
@@ -4373,253 +4373,253 @@
         <v>220</v>
       </c>
       <c r="G117" t="n">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H117" t="n">
         <v>510304</v>
       </c>
       <c r="I117" t="n">
-        <v>2395640</v>
-      </c>
-      <c r="J117" t="b">
-        <v>1</v>
-      </c>
+        <v>2416664</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>224.54</v>
+        <v>225.62</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Q-494_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>494</v>
-      </c>
-      <c r="C118" t="n">
-        <v>326</v>
-      </c>
-      <c r="D118" t="n">
-        <v>66</v>
-      </c>
-      <c r="E118" t="n">
-        <v>144</v>
-      </c>
-      <c r="F118" t="n">
-        <v>220</v>
-      </c>
-      <c r="G118" t="n">
-        <v>152</v>
-      </c>
-      <c r="H118" t="n">
-        <v>510304</v>
-      </c>
-      <c r="I118" t="n">
-        <v>2397976</v>
-      </c>
-      <c r="J118" t="b">
-        <v>1</v>
-      </c>
-      <c r="K118" t="n">
-        <v>109.77</v>
-      </c>
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Q-494_bus.mtx.rnd</t>
+          <t>R-dwt__503.mtx.rnd</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="C119" t="n">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="D119" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E119" t="n">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="F119" t="n">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="G119" t="n">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="H119" t="n">
-        <v>510304</v>
+        <v>551793</v>
       </c>
       <c r="I119" t="n">
-        <v>2400312</v>
+        <v>4055972</v>
       </c>
       <c r="J119" t="b">
         <v>1</v>
       </c>
       <c r="K119" t="n">
-        <v>362.16</v>
+        <v>48.96</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Q-494_bus.mtx.rnd</t>
+          <t>R-dwt__503.mtx.rnd</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="C120" t="n">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="D120" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E120" t="n">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="F120" t="n">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="G120" t="n">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="H120" t="n">
-        <v>510304</v>
+        <v>551793</v>
       </c>
       <c r="I120" t="n">
-        <v>2402648</v>
+        <v>4067014</v>
       </c>
       <c r="J120" t="b">
         <v>1</v>
       </c>
       <c r="K120" t="n">
-        <v>88.34</v>
+        <v>31.42</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Q-494_bus.mtx.rnd</t>
+          <t>R-dwt__503.mtx.rnd</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="C121" t="n">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="D121" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E121" t="n">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="F121" t="n">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="G121" t="n">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="H121" t="n">
-        <v>510304</v>
+        <v>551793</v>
       </c>
       <c r="I121" t="n">
-        <v>2404984</v>
+        <v>4078056</v>
       </c>
       <c r="J121" t="b">
         <v>1</v>
       </c>
       <c r="K121" t="n">
-        <v>74.7</v>
+        <v>48.42</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Q-494_bus.mtx.rnd</t>
+          <t>R-dwt__503.mtx.rnd</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="C122" t="n">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="D122" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E122" t="n">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="F122" t="n">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="G122" t="n">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="H122" t="n">
-        <v>510304</v>
+        <v>551793</v>
       </c>
       <c r="I122" t="n">
-        <v>2407320</v>
+        <v>4089098</v>
       </c>
       <c r="J122" t="b">
         <v>1</v>
       </c>
       <c r="K122" t="n">
-        <v>131.74</v>
+        <v>48.23</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Q-494_bus.mtx.rnd</t>
+          <t>R-dwt__503.mtx.rnd</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="C123" t="n">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="D123" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E123" t="n">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="F123" t="n">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="G123" t="n">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="H123" t="n">
-        <v>510304</v>
+        <v>551793</v>
       </c>
       <c r="I123" t="n">
-        <v>2409656</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>4100140</v>
+      </c>
+      <c r="J123" t="b">
+        <v>1</v>
+      </c>
       <c r="K123" t="n">
-        <v>34.49</v>
+        <v>51.89</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr"/>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>R-dwt__503.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>503</v>
+      </c>
+      <c r="C124" t="n">
+        <v>347</v>
+      </c>
+      <c r="D124" t="n">
+        <v>69</v>
+      </c>
+      <c r="E124" t="n">
+        <v>31</v>
+      </c>
+      <c r="F124" t="n">
+        <v>64</v>
+      </c>
+      <c r="G124" t="n">
+        <v>36</v>
+      </c>
+      <c r="H124" t="n">
+        <v>551793</v>
+      </c>
+      <c r="I124" t="n">
+        <v>4111182</v>
+      </c>
+      <c r="J124" t="b">
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>34.99</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4643,19 +4643,19 @@
         <v>64</v>
       </c>
       <c r="G125" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H125" t="n">
         <v>551793</v>
       </c>
       <c r="I125" t="n">
-        <v>4055972</v>
+        <v>4122224</v>
       </c>
       <c r="J125" t="b">
         <v>1</v>
       </c>
       <c r="K125" t="n">
-        <v>28.89</v>
+        <v>69.53</v>
       </c>
     </row>
     <row r="126">
@@ -4680,19 +4680,19 @@
         <v>64</v>
       </c>
       <c r="G126" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H126" t="n">
         <v>551793</v>
       </c>
       <c r="I126" t="n">
-        <v>4067014</v>
+        <v>4133266</v>
       </c>
       <c r="J126" t="b">
         <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>29.04</v>
+        <v>105.47</v>
       </c>
     </row>
     <row r="127">
@@ -4717,19 +4717,19 @@
         <v>64</v>
       </c>
       <c r="G127" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H127" t="n">
         <v>551793</v>
       </c>
       <c r="I127" t="n">
-        <v>4078056</v>
+        <v>4144308</v>
       </c>
       <c r="J127" t="b">
         <v>1</v>
       </c>
       <c r="K127" t="n">
-        <v>28.26</v>
+        <v>135.76</v>
       </c>
     </row>
     <row r="128">
@@ -4754,19 +4754,19 @@
         <v>64</v>
       </c>
       <c r="G128" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H128" t="n">
         <v>551793</v>
       </c>
       <c r="I128" t="n">
-        <v>4089098</v>
+        <v>4155350</v>
       </c>
       <c r="J128" t="b">
         <v>1</v>
       </c>
       <c r="K128" t="n">
-        <v>22.89</v>
+        <v>196.32</v>
       </c>
     </row>
     <row r="129">
@@ -4791,19 +4791,19 @@
         <v>64</v>
       </c>
       <c r="G129" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H129" t="n">
         <v>551793</v>
       </c>
       <c r="I129" t="n">
-        <v>4100140</v>
+        <v>4166392</v>
       </c>
       <c r="J129" t="b">
         <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>33.73</v>
+        <v>227.21</v>
       </c>
     </row>
     <row r="130">
@@ -4828,509 +4828,483 @@
         <v>64</v>
       </c>
       <c r="G130" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H130" t="n">
         <v>551793</v>
       </c>
       <c r="I130" t="n">
-        <v>4111182</v>
-      </c>
-      <c r="J130" t="b">
-        <v>1</v>
-      </c>
+        <v>4177434</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>41.55</v>
+        <v>801.95</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>R-dwt__503.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>503</v>
-      </c>
-      <c r="C131" t="n">
-        <v>347</v>
-      </c>
-      <c r="D131" t="n">
-        <v>69</v>
-      </c>
-      <c r="E131" t="n">
-        <v>31</v>
-      </c>
-      <c r="F131" t="n">
-        <v>64</v>
-      </c>
-      <c r="G131" t="n">
-        <v>37</v>
-      </c>
-      <c r="H131" t="n">
-        <v>551793</v>
-      </c>
-      <c r="I131" t="n">
-        <v>4122224</v>
-      </c>
-      <c r="J131" t="b">
-        <v>1</v>
-      </c>
-      <c r="K131" t="n">
-        <v>43.05</v>
-      </c>
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>R-dwt__503.mtx.rnd</t>
+          <t>S-sherman4.mtx.rnd</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="C132" t="n">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="D132" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E132" t="n">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F132" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="H132" t="n">
-        <v>551793</v>
+        <v>556922</v>
       </c>
       <c r="I132" t="n">
-        <v>4133266</v>
+        <v>3483691</v>
       </c>
       <c r="J132" t="b">
         <v>1</v>
       </c>
       <c r="K132" t="n">
-        <v>86.97</v>
+        <v>283.16</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>R-dwt__503.mtx.rnd</t>
+          <t>S-sherman4.mtx.rnd</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="C133" t="n">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="D133" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E133" t="n">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F133" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="G133" t="n">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="H133" t="n">
-        <v>551793</v>
+        <v>556922</v>
       </c>
       <c r="I133" t="n">
-        <v>4144308</v>
+        <v>3489031</v>
       </c>
       <c r="J133" t="b">
         <v>1</v>
       </c>
       <c r="K133" t="n">
-        <v>97.01000000000001</v>
+        <v>946.33</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>R-dwt__503.mtx.rnd</t>
+          <t>S-sherman4.mtx.rnd</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="C134" t="n">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="D134" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E134" t="n">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F134" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="G134" t="n">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="H134" t="n">
-        <v>551793</v>
+        <v>556922</v>
       </c>
       <c r="I134" t="n">
-        <v>4155350</v>
+        <v>3494371</v>
       </c>
       <c r="J134" t="b">
         <v>1</v>
       </c>
       <c r="K134" t="n">
-        <v>67.34999999999999</v>
+        <v>409.66</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>R-dwt__503.mtx.rnd</t>
+          <t>S-sherman4.mtx.rnd</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="C135" t="n">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="D135" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E135" t="n">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F135" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="G135" t="n">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="H135" t="n">
-        <v>551793</v>
+        <v>556922</v>
       </c>
       <c r="I135" t="n">
-        <v>4166392</v>
-      </c>
-      <c r="J135" t="b">
-        <v>1</v>
-      </c>
+        <v>3499711</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>129.91</v>
+        <v>160.98</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>R-dwt__503.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>503</v>
-      </c>
-      <c r="C136" t="n">
-        <v>347</v>
-      </c>
-      <c r="D136" t="n">
-        <v>69</v>
-      </c>
-      <c r="E136" t="n">
-        <v>31</v>
-      </c>
-      <c r="F136" t="n">
-        <v>64</v>
-      </c>
-      <c r="G136" t="n">
-        <v>42</v>
-      </c>
-      <c r="H136" t="n">
-        <v>551793</v>
-      </c>
-      <c r="I136" t="n">
-        <v>4177434</v>
-      </c>
-      <c r="J136" t="b">
-        <v>1</v>
-      </c>
-      <c r="K136" t="n">
-        <v>110.36</v>
-      </c>
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>R-dwt__503.mtx.rnd</t>
+          <t>T-dwt__592.mtx.rnd</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>503</v>
+        <v>592</v>
       </c>
       <c r="C137" t="n">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="D137" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E137" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F137" t="n">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="G137" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="H137" t="n">
-        <v>551793</v>
+        <v>705074</v>
       </c>
       <c r="I137" t="n">
-        <v>4188476</v>
+        <v>4591298</v>
       </c>
       <c r="J137" t="b">
         <v>1</v>
       </c>
       <c r="K137" t="n">
-        <v>415.96</v>
+        <v>148.58</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>R-dwt__503.mtx.rnd</t>
+          <t>T-dwt__592.mtx.rnd</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>503</v>
+        <v>592</v>
       </c>
       <c r="C138" t="n">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="D138" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E138" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F138" t="n">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="G138" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="H138" t="n">
-        <v>551793</v>
+        <v>705074</v>
       </c>
       <c r="I138" t="n">
-        <v>4199518</v>
+        <v>4600316</v>
       </c>
       <c r="J138" t="b">
         <v>1</v>
       </c>
       <c r="K138" t="n">
-        <v>99.63</v>
+        <v>160.64</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>R-dwt__503.mtx.rnd</t>
+          <t>T-dwt__592.mtx.rnd</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>503</v>
+        <v>592</v>
       </c>
       <c r="C139" t="n">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="D139" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E139" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F139" t="n">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="G139" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="H139" t="n">
-        <v>551793</v>
+        <v>705074</v>
       </c>
       <c r="I139" t="n">
-        <v>4210560</v>
+        <v>4609334</v>
       </c>
       <c r="J139" t="b">
         <v>1</v>
       </c>
       <c r="K139" t="n">
-        <v>545</v>
+        <v>367.06</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>R-dwt__503.mtx.rnd</t>
+          <t>T-dwt__592.mtx.rnd</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>503</v>
+        <v>592</v>
       </c>
       <c r="C140" t="n">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="D140" t="n">
+        <v>64</v>
+      </c>
+      <c r="E140" t="n">
+        <v>65</v>
+      </c>
+      <c r="F140" t="n">
+        <v>104</v>
+      </c>
+      <c r="G140" t="n">
+        <v>68</v>
+      </c>
+      <c r="H140" t="n">
+        <v>705074</v>
+      </c>
+      <c r="I140" t="n">
+        <v>4618352</v>
+      </c>
+      <c r="J140" t="b">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>180.84</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>T-dwt__592.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>592</v>
+      </c>
+      <c r="C141" t="n">
+        <v>378</v>
+      </c>
+      <c r="D141" t="n">
+        <v>64</v>
+      </c>
+      <c r="E141" t="n">
+        <v>65</v>
+      </c>
+      <c r="F141" t="n">
+        <v>104</v>
+      </c>
+      <c r="G141" t="n">
         <v>69</v>
       </c>
-      <c r="E140" t="n">
-        <v>31</v>
-      </c>
-      <c r="F140" t="n">
-        <v>64</v>
-      </c>
-      <c r="G140" t="n">
-        <v>46</v>
-      </c>
-      <c r="H140" t="n">
-        <v>551793</v>
-      </c>
-      <c r="I140" t="n">
-        <v>4221602</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>20.63</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr"/>
-      <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="H141" t="n">
+        <v>705074</v>
+      </c>
+      <c r="I141" t="n">
+        <v>4627370</v>
+      </c>
+      <c r="J141" t="b">
+        <v>1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>367.8</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>S-sherman4.mtx.rnd</t>
+          <t>T-dwt__592.mtx.rnd</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>546</v>
+        <v>592</v>
       </c>
       <c r="C142" t="n">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="D142" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E142" t="n">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="F142" t="n">
-        <v>256</v>
+        <v>104</v>
       </c>
       <c r="G142" t="n">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="H142" t="n">
-        <v>556922</v>
+        <v>705074</v>
       </c>
       <c r="I142" t="n">
-        <v>3483691</v>
+        <v>4636388</v>
       </c>
       <c r="J142" t="b">
         <v>1</v>
       </c>
       <c r="K142" t="n">
-        <v>123.59</v>
+        <v>176.29</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>S-sherman4.mtx.rnd</t>
+          <t>T-dwt__592.mtx.rnd</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>546</v>
+        <v>592</v>
       </c>
       <c r="C143" t="n">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="D143" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E143" t="n">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="F143" t="n">
-        <v>256</v>
+        <v>104</v>
       </c>
       <c r="G143" t="n">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="H143" t="n">
-        <v>556922</v>
+        <v>705074</v>
       </c>
       <c r="I143" t="n">
-        <v>3489031</v>
+        <v>4645406</v>
       </c>
       <c r="J143" t="b">
         <v>1</v>
       </c>
       <c r="K143" t="n">
-        <v>898.42</v>
+        <v>153.79</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>S-sherman4.mtx.rnd</t>
+          <t>T-dwt__592.mtx.rnd</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>546</v>
+        <v>592</v>
       </c>
       <c r="C144" t="n">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="D144" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E144" t="n">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="F144" t="n">
-        <v>256</v>
+        <v>104</v>
       </c>
       <c r="G144" t="n">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="H144" t="n">
-        <v>556922</v>
+        <v>705074</v>
       </c>
       <c r="I144" t="n">
-        <v>3494371</v>
+        <v>4654424</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>797.92</v>
+        <v>245.14</v>
       </c>
     </row>
     <row r="145">
@@ -5349,1120 +5323,406 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>T-dwt__592.mtx.rnd</t>
+          <t>U-662_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="C146" t="n">
-        <v>378</v>
+        <v>516</v>
       </c>
       <c r="D146" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E146" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="F146" t="n">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="G146" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="H146" t="n">
-        <v>705074</v>
+        <v>1068470</v>
       </c>
       <c r="I146" t="n">
-        <v>4591298</v>
+        <v>5049763</v>
       </c>
       <c r="J146" t="b">
         <v>1</v>
       </c>
       <c r="K146" t="n">
-        <v>36.38</v>
+        <v>54.58</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>T-dwt__592.mtx.rnd</t>
+          <t>U-662_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="C147" t="n">
-        <v>378</v>
+        <v>516</v>
       </c>
       <c r="D147" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E147" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="F147" t="n">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="G147" t="n">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="H147" t="n">
-        <v>705074</v>
+        <v>1068470</v>
       </c>
       <c r="I147" t="n">
-        <v>4600316</v>
+        <v>5053367</v>
       </c>
       <c r="J147" t="b">
         <v>1</v>
       </c>
       <c r="K147" t="n">
-        <v>62.8</v>
+        <v>85.8</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>T-dwt__592.mtx.rnd</t>
+          <t>U-662_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="C148" t="n">
-        <v>378</v>
+        <v>516</v>
       </c>
       <c r="D148" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E148" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="F148" t="n">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="G148" t="n">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="H148" t="n">
-        <v>705074</v>
+        <v>1068470</v>
       </c>
       <c r="I148" t="n">
-        <v>4609334</v>
+        <v>5056971</v>
       </c>
       <c r="J148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>66.26000000000001</v>
+        <v>18.14</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>T-dwt__592.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>592</v>
-      </c>
-      <c r="C149" t="n">
-        <v>378</v>
-      </c>
-      <c r="D149" t="n">
-        <v>64</v>
-      </c>
-      <c r="E149" t="n">
-        <v>65</v>
-      </c>
-      <c r="F149" t="n">
-        <v>104</v>
-      </c>
-      <c r="G149" t="n">
-        <v>68</v>
-      </c>
-      <c r="H149" t="n">
-        <v>705074</v>
-      </c>
-      <c r="I149" t="n">
-        <v>4618352</v>
-      </c>
-      <c r="J149" t="b">
-        <v>1</v>
-      </c>
-      <c r="K149" t="n">
-        <v>73.44</v>
-      </c>
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>T-dwt__592.mtx.rnd</t>
+          <t>V-nos6.mtx.rnd</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>592</v>
+        <v>675</v>
       </c>
       <c r="C150" t="n">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="D150" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E150" t="n">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="F150" t="n">
-        <v>104</v>
+        <v>326</v>
       </c>
       <c r="G150" t="n">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="H150" t="n">
-        <v>705074</v>
+        <v>860627</v>
       </c>
       <c r="I150" t="n">
-        <v>4627370</v>
-      </c>
-      <c r="J150" t="b">
-        <v>1</v>
-      </c>
+        <v>4858786</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>36.73</v>
+        <v>1800.18</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>T-dwt__592.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>592</v>
-      </c>
-      <c r="C151" t="n">
-        <v>378</v>
-      </c>
-      <c r="D151" t="n">
-        <v>64</v>
-      </c>
-      <c r="E151" t="n">
-        <v>65</v>
-      </c>
-      <c r="F151" t="n">
-        <v>104</v>
-      </c>
-      <c r="G151" t="n">
-        <v>70</v>
-      </c>
-      <c r="H151" t="n">
-        <v>705074</v>
-      </c>
-      <c r="I151" t="n">
-        <v>4636388</v>
-      </c>
-      <c r="J151" t="b">
-        <v>1</v>
-      </c>
-      <c r="K151" t="n">
-        <v>48.64</v>
-      </c>
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>T-dwt__592.mtx.rnd</t>
+          <t>W-685_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>592</v>
+        <v>685</v>
       </c>
       <c r="C152" t="n">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="D152" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E152" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F152" t="n">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="G152" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H152" t="n">
-        <v>705074</v>
+        <v>855567</v>
       </c>
       <c r="I152" t="n">
-        <v>4645406</v>
+        <v>4210664</v>
       </c>
       <c r="J152" t="b">
         <v>1</v>
       </c>
       <c r="K152" t="n">
-        <v>91.08</v>
+        <v>75.33</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>T-dwt__592.mtx.rnd</t>
+          <t>W-685_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>592</v>
+        <v>685</v>
       </c>
       <c r="C153" t="n">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="D153" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E153" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F153" t="n">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="G153" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H153" t="n">
-        <v>705074</v>
+        <v>855567</v>
       </c>
       <c r="I153" t="n">
-        <v>4654424</v>
+        <v>4215790</v>
       </c>
       <c r="J153" t="b">
         <v>1</v>
       </c>
       <c r="K153" t="n">
-        <v>89.36</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>T-dwt__592.mtx.rnd</t>
+          <t>W-685_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>592</v>
+        <v>685</v>
       </c>
       <c r="C154" t="n">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="D154" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E154" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F154" t="n">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="G154" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H154" t="n">
-        <v>705074</v>
+        <v>855567</v>
       </c>
       <c r="I154" t="n">
-        <v>4663442</v>
+        <v>4220916</v>
       </c>
       <c r="J154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154" t="n">
-        <v>106.46</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>T-dwt__592.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>592</v>
-      </c>
-      <c r="C155" t="n">
-        <v>378</v>
-      </c>
-      <c r="D155" t="n">
-        <v>64</v>
-      </c>
-      <c r="E155" t="n">
-        <v>65</v>
-      </c>
-      <c r="F155" t="n">
-        <v>104</v>
-      </c>
-      <c r="G155" t="n">
-        <v>74</v>
-      </c>
-      <c r="H155" t="n">
-        <v>705074</v>
-      </c>
-      <c r="I155" t="n">
-        <v>4672460</v>
-      </c>
-      <c r="J155" t="b">
-        <v>1</v>
-      </c>
-      <c r="K155" t="n">
-        <v>149.82</v>
-      </c>
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>T-dwt__592.mtx.rnd</t>
+          <t>X-can__715.mtx.rnd</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>592</v>
+        <v>715</v>
       </c>
       <c r="C156" t="n">
-        <v>378</v>
+        <v>500</v>
       </c>
       <c r="D156" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E156" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F156" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G156" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H156" t="n">
-        <v>705074</v>
+        <v>1118977</v>
       </c>
       <c r="I156" t="n">
-        <v>4681478</v>
+        <v>7567349</v>
       </c>
       <c r="J156" t="b">
         <v>1</v>
       </c>
       <c r="K156" t="n">
-        <v>167.75</v>
+        <v>325.94</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>T-dwt__592.mtx.rnd</t>
+          <t>X-can__715.mtx.rnd</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>592</v>
+        <v>715</v>
       </c>
       <c r="C157" t="n">
-        <v>378</v>
+        <v>500</v>
       </c>
       <c r="D157" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E157" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F157" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G157" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H157" t="n">
-        <v>705074</v>
+        <v>1118977</v>
       </c>
       <c r="I157" t="n">
-        <v>4690496</v>
+        <v>7579247</v>
       </c>
       <c r="J157" t="b">
         <v>1</v>
       </c>
       <c r="K157" t="n">
-        <v>127.83</v>
+        <v>824.04</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>T-dwt__592.mtx.rnd</t>
+          <t>X-can__715.mtx.rnd</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>592</v>
+        <v>715</v>
       </c>
       <c r="C158" t="n">
-        <v>378</v>
+        <v>500</v>
       </c>
       <c r="D158" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E158" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F158" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G158" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H158" t="n">
-        <v>705074</v>
+        <v>1118977</v>
       </c>
       <c r="I158" t="n">
-        <v>4699514</v>
-      </c>
-      <c r="J158" t="b">
-        <v>1</v>
-      </c>
+        <v>7591145</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>183.3</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>T-dwt__592.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>592</v>
-      </c>
-      <c r="C159" t="n">
-        <v>378</v>
-      </c>
-      <c r="D159" t="n">
-        <v>64</v>
-      </c>
-      <c r="E159" t="n">
-        <v>65</v>
-      </c>
-      <c r="F159" t="n">
-        <v>104</v>
-      </c>
-      <c r="G159" t="n">
-        <v>78</v>
-      </c>
-      <c r="H159" t="n">
-        <v>705074</v>
-      </c>
-      <c r="I159" t="n">
-        <v>4708532</v>
-      </c>
-      <c r="J159" t="b">
-        <v>1</v>
-      </c>
-      <c r="K159" t="n">
-        <v>146.36</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>T-dwt__592.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>592</v>
-      </c>
-      <c r="C160" t="n">
-        <v>378</v>
-      </c>
-      <c r="D160" t="n">
-        <v>64</v>
-      </c>
-      <c r="E160" t="n">
-        <v>65</v>
-      </c>
-      <c r="F160" t="n">
-        <v>104</v>
-      </c>
-      <c r="G160" t="n">
-        <v>79</v>
-      </c>
-      <c r="H160" t="n">
-        <v>705074</v>
-      </c>
-      <c r="I160" t="n">
-        <v>4717550</v>
-      </c>
-      <c r="J160" t="b">
-        <v>1</v>
-      </c>
-      <c r="K160" t="n">
-        <v>395.01</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>T-dwt__592.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>592</v>
-      </c>
-      <c r="C161" t="n">
-        <v>378</v>
-      </c>
-      <c r="D161" t="n">
-        <v>64</v>
-      </c>
-      <c r="E161" t="n">
-        <v>65</v>
-      </c>
-      <c r="F161" t="n">
-        <v>104</v>
-      </c>
-      <c r="G161" t="n">
-        <v>80</v>
-      </c>
-      <c r="H161" t="n">
-        <v>705074</v>
-      </c>
-      <c r="I161" t="n">
-        <v>4726568</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>20.01</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr"/>
-      <c r="B162" t="inlineStr"/>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>U-662_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>662</v>
-      </c>
-      <c r="C163" t="n">
-        <v>516</v>
-      </c>
-      <c r="D163" t="n">
-        <v>78</v>
-      </c>
-      <c r="E163" t="n">
-        <v>170</v>
-      </c>
-      <c r="F163" t="n">
-        <v>220</v>
-      </c>
-      <c r="G163" t="n">
-        <v>170</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1068470</v>
-      </c>
-      <c r="I163" t="n">
-        <v>5049763</v>
-      </c>
-      <c r="J163" t="b">
-        <v>1</v>
-      </c>
-      <c r="K163" t="n">
-        <v>29.82</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>U-662_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>662</v>
-      </c>
-      <c r="C164" t="n">
-        <v>516</v>
-      </c>
-      <c r="D164" t="n">
-        <v>78</v>
-      </c>
-      <c r="E164" t="n">
-        <v>170</v>
-      </c>
-      <c r="F164" t="n">
-        <v>220</v>
-      </c>
-      <c r="G164" t="n">
-        <v>171</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1068470</v>
-      </c>
-      <c r="I164" t="n">
-        <v>5053367</v>
-      </c>
-      <c r="J164" t="b">
-        <v>1</v>
-      </c>
-      <c r="K164" t="n">
-        <v>31.14</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>U-662_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>662</v>
-      </c>
-      <c r="C165" t="n">
-        <v>516</v>
-      </c>
-      <c r="D165" t="n">
-        <v>78</v>
-      </c>
-      <c r="E165" t="n">
-        <v>170</v>
-      </c>
-      <c r="F165" t="n">
-        <v>220</v>
-      </c>
-      <c r="G165" t="n">
-        <v>172</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1068470</v>
-      </c>
-      <c r="I165" t="n">
-        <v>5056971</v>
-      </c>
-      <c r="J165" t="b">
-        <v>0</v>
-      </c>
-      <c r="K165" t="n">
-        <v>25.76</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr"/>
-      <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>V-nos6.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>675</v>
-      </c>
-      <c r="C167" t="n">
-        <v>405</v>
-      </c>
-      <c r="D167" t="n">
-        <v>60</v>
-      </c>
-      <c r="E167" t="n">
-        <v>195</v>
-      </c>
-      <c r="F167" t="n">
-        <v>326</v>
-      </c>
-      <c r="G167" t="n">
-        <v>195</v>
-      </c>
-      <c r="H167" t="n">
-        <v>860627</v>
-      </c>
-      <c r="I167" t="n">
-        <v>4858786</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>1858.95</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr"/>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>W-685_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>685</v>
-      </c>
-      <c r="C169" t="n">
-        <v>397</v>
-      </c>
-      <c r="D169" t="n">
-        <v>58</v>
-      </c>
-      <c r="E169" t="n">
-        <v>78</v>
-      </c>
-      <c r="F169" t="n">
-        <v>136</v>
-      </c>
-      <c r="G169" t="n">
-        <v>78</v>
-      </c>
-      <c r="H169" t="n">
-        <v>855567</v>
-      </c>
-      <c r="I169" t="n">
-        <v>4210664</v>
-      </c>
-      <c r="J169" t="b">
-        <v>1</v>
-      </c>
-      <c r="K169" t="n">
-        <v>31.69</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>W-685_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>685</v>
-      </c>
-      <c r="C170" t="n">
-        <v>397</v>
-      </c>
-      <c r="D170" t="n">
-        <v>58</v>
-      </c>
-      <c r="E170" t="n">
-        <v>78</v>
-      </c>
-      <c r="F170" t="n">
-        <v>136</v>
-      </c>
-      <c r="G170" t="n">
-        <v>79</v>
-      </c>
-      <c r="H170" t="n">
-        <v>855567</v>
-      </c>
-      <c r="I170" t="n">
-        <v>4215790</v>
-      </c>
-      <c r="J170" t="b">
-        <v>1</v>
-      </c>
-      <c r="K170" t="n">
-        <v>27.68</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>W-685_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>685</v>
-      </c>
-      <c r="C171" t="n">
-        <v>397</v>
-      </c>
-      <c r="D171" t="n">
-        <v>58</v>
-      </c>
-      <c r="E171" t="n">
-        <v>78</v>
-      </c>
-      <c r="F171" t="n">
-        <v>136</v>
-      </c>
-      <c r="G171" t="n">
-        <v>80</v>
-      </c>
-      <c r="H171" t="n">
-        <v>855567</v>
-      </c>
-      <c r="I171" t="n">
-        <v>4220916</v>
-      </c>
-      <c r="J171" t="b">
-        <v>0</v>
-      </c>
-      <c r="K171" t="n">
-        <v>44.03</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr"/>
-      <c r="B172" t="inlineStr"/>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>X-can__715.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>715</v>
-      </c>
-      <c r="C173" t="n">
-        <v>500</v>
-      </c>
-      <c r="D173" t="n">
-        <v>70</v>
-      </c>
-      <c r="E173" t="n">
-        <v>78</v>
-      </c>
-      <c r="F173" t="n">
-        <v>113</v>
-      </c>
-      <c r="G173" t="n">
-        <v>78</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1118977</v>
-      </c>
-      <c r="I173" t="n">
-        <v>7567349</v>
-      </c>
-      <c r="J173" t="b">
-        <v>1</v>
-      </c>
-      <c r="K173" t="n">
-        <v>177.35</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>X-can__715.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>715</v>
-      </c>
-      <c r="C174" t="n">
-        <v>500</v>
-      </c>
-      <c r="D174" t="n">
-        <v>70</v>
-      </c>
-      <c r="E174" t="n">
-        <v>78</v>
-      </c>
-      <c r="F174" t="n">
-        <v>113</v>
-      </c>
-      <c r="G174" t="n">
-        <v>79</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1118977</v>
-      </c>
-      <c r="I174" t="n">
-        <v>7579247</v>
-      </c>
-      <c r="J174" t="b">
-        <v>1</v>
-      </c>
-      <c r="K174" t="n">
-        <v>178.17</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>X-can__715.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>715</v>
-      </c>
-      <c r="C175" t="n">
-        <v>500</v>
-      </c>
-      <c r="D175" t="n">
-        <v>70</v>
-      </c>
-      <c r="E175" t="n">
-        <v>78</v>
-      </c>
-      <c r="F175" t="n">
-        <v>113</v>
-      </c>
-      <c r="G175" t="n">
-        <v>80</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1118977</v>
-      </c>
-      <c r="I175" t="n">
-        <v>7591145</v>
-      </c>
-      <c r="J175" t="b">
-        <v>1</v>
-      </c>
-      <c r="K175" t="n">
-        <v>329.3</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>X-can__715.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>715</v>
-      </c>
-      <c r="C176" t="n">
-        <v>500</v>
-      </c>
-      <c r="D176" t="n">
-        <v>70</v>
-      </c>
-      <c r="E176" t="n">
-        <v>78</v>
-      </c>
-      <c r="F176" t="n">
-        <v>113</v>
-      </c>
-      <c r="G176" t="n">
-        <v>81</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1118977</v>
-      </c>
-      <c r="I176" t="n">
-        <v>7603043</v>
-      </c>
-      <c r="J176" t="b">
-        <v>1</v>
-      </c>
-      <c r="K176" t="n">
-        <v>374.31</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>X-can__715.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>715</v>
-      </c>
-      <c r="C177" t="n">
-        <v>500</v>
-      </c>
-      <c r="D177" t="n">
-        <v>70</v>
-      </c>
-      <c r="E177" t="n">
-        <v>78</v>
-      </c>
-      <c r="F177" t="n">
-        <v>113</v>
-      </c>
-      <c r="G177" t="n">
-        <v>82</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1118977</v>
-      </c>
-      <c r="I177" t="n">
-        <v>7614941</v>
-      </c>
-      <c r="J177" t="b">
-        <v>1</v>
-      </c>
-      <c r="K177" t="n">
-        <v>438.59</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>X-can__715.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>715</v>
-      </c>
-      <c r="C178" t="n">
-        <v>500</v>
-      </c>
-      <c r="D178" t="n">
-        <v>70</v>
-      </c>
-      <c r="E178" t="n">
-        <v>78</v>
-      </c>
-      <c r="F178" t="n">
-        <v>113</v>
-      </c>
-      <c r="G178" t="n">
-        <v>83</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1118977</v>
-      </c>
-      <c r="I178" t="n">
-        <v>7626839</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>312.85</v>
+        <v>650.62</v>
       </c>
     </row>
   </sheetData>
